--- a/DataNew.xlsx
+++ b/DataNew.xlsx
@@ -352,3697 +352,3697 @@
   <dimension ref="A1:B5934"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B576"/>
+      <selection sqref="A1:B461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>22678.78</v>
+        <v>22882.27</v>
       </c>
       <c r="B1">
-        <v>6740.31</v>
+        <v>7282.59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>22660.84</v>
+        <v>22848.07</v>
       </c>
       <c r="B2">
-        <v>6749.07</v>
+        <v>7285.51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>22655.87</v>
+        <v>22808.959999999999</v>
       </c>
       <c r="B3">
-        <v>6757.15</v>
+        <v>7284.81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>22675.040000000001</v>
+        <v>22795.69</v>
       </c>
       <c r="B4">
-        <v>6771.62</v>
+        <v>7286.19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>22673.25</v>
+        <v>22792.59</v>
       </c>
       <c r="B5">
-        <v>6760.86</v>
+        <v>7285.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>22671.040000000001</v>
+        <v>22752.74</v>
       </c>
       <c r="B6">
-        <v>6758.91</v>
+        <v>7281.79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>22656.13</v>
+        <v>22794.14</v>
       </c>
       <c r="B7">
-        <v>6761.07</v>
+        <v>7279.02</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>22653.46</v>
+        <v>22782.17</v>
       </c>
       <c r="B8">
-        <v>6759.9</v>
+        <v>7289.72</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>22647.67</v>
+        <v>22801.31</v>
       </c>
       <c r="B9">
-        <v>6753.86</v>
+        <v>7291.34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>22657.599999999999</v>
+        <v>22793.8</v>
       </c>
       <c r="B10">
-        <v>6761.2</v>
+        <v>7291.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>22696.03</v>
+        <v>22843.21</v>
       </c>
       <c r="B11">
-        <v>6760.65</v>
+        <v>7293.72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>22680.37</v>
+        <v>22836.02</v>
       </c>
       <c r="B12">
-        <v>6752.67</v>
+        <v>7295.19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>22675.15</v>
+        <v>22829.02</v>
       </c>
       <c r="B13">
-        <v>6754.01</v>
+        <v>7296.69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>22805.13</v>
+        <v>22879.57</v>
       </c>
       <c r="B14">
-        <v>6749.15</v>
+        <v>7297.65</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>22770.36</v>
+        <v>22906.19</v>
       </c>
       <c r="B15">
-        <v>6740.35</v>
+        <v>7293.87</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>22760.21</v>
+        <v>22933.439999999999</v>
       </c>
       <c r="B16">
-        <v>6747.76</v>
+        <v>7292.15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>22735.3</v>
+        <v>22902.68</v>
       </c>
       <c r="B17">
-        <v>6746.69</v>
+        <v>7280.97</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>22726.04</v>
+        <v>22902.14</v>
       </c>
       <c r="B18">
-        <v>6755.72</v>
+        <v>7279.72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>22724.01</v>
+        <v>22925.63</v>
       </c>
       <c r="B19">
-        <v>6772.26</v>
+        <v>7295.08</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>22720.9</v>
+        <v>22944.240000000002</v>
       </c>
       <c r="B20">
-        <v>6779.33</v>
+        <v>7294.51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>22748.22</v>
+        <v>22951.25</v>
       </c>
       <c r="B21">
-        <v>6776.42</v>
+        <v>7287.11</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>22735.31</v>
+        <v>22933.56</v>
       </c>
       <c r="B22">
-        <v>6776.42</v>
+        <v>7297.61</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>22748.74</v>
+        <v>22928.07</v>
       </c>
       <c r="B23">
-        <v>6779.84</v>
+        <v>7292.37</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>22735.18</v>
+        <v>22696.52</v>
       </c>
       <c r="B24">
-        <v>6886.07</v>
+        <v>7336.31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>22741.25</v>
+        <v>22694.1</v>
       </c>
       <c r="B25">
-        <v>6878.28</v>
+        <v>7332.81</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>22774.720000000001</v>
+        <v>22721.09</v>
       </c>
       <c r="B26">
-        <v>6879.88</v>
+        <v>7330.17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>22759.31</v>
+        <v>22713.99</v>
       </c>
       <c r="B27">
-        <v>6890.02</v>
+        <v>7333.44</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>22735.45</v>
+        <v>22712.89</v>
       </c>
       <c r="B28">
-        <v>6882.48</v>
+        <v>7343.1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>22744.75</v>
+        <v>22679.91</v>
       </c>
       <c r="B29">
-        <v>6876.82</v>
+        <v>7341.6</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>22764.73</v>
+        <v>22712.82</v>
       </c>
       <c r="B30">
-        <v>6872.28</v>
+        <v>7338.41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>22774.85</v>
+        <v>22742.78</v>
       </c>
       <c r="B31">
-        <v>6871.42</v>
+        <v>7338.26</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>22776.400000000001</v>
+        <v>22731.17</v>
       </c>
       <c r="B32">
-        <v>6869.83</v>
+        <v>7337.33</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>22785.42</v>
+        <v>22726</v>
       </c>
       <c r="B33">
-        <v>6867.87</v>
+        <v>7339.22</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>22806.35</v>
+        <v>22720.03</v>
       </c>
       <c r="B34">
-        <v>6870.05</v>
+        <v>7340.67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>22793.88</v>
+        <v>22724.17</v>
       </c>
       <c r="B35">
-        <v>6874.95</v>
+        <v>7334.63</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>22800.92</v>
+        <v>22718.15</v>
       </c>
       <c r="B36">
-        <v>6873.85</v>
+        <v>7332.9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>23027.38</v>
+        <v>22819.87</v>
       </c>
       <c r="B37">
-        <v>6873.07</v>
+        <v>7331.07</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>22988.62</v>
+        <v>22747.85</v>
       </c>
       <c r="B38">
-        <v>6881.72</v>
+        <v>7327.52</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>23008.43</v>
+        <v>22720.32</v>
       </c>
       <c r="B39">
-        <v>6886.38</v>
+        <v>7322.79</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>22993.21</v>
+        <v>22740.68</v>
       </c>
       <c r="B40">
-        <v>6887.18</v>
+        <v>7323.33</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>22999.19</v>
+        <v>22797.4</v>
       </c>
       <c r="B41">
-        <v>6881.18</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>22971.72</v>
+        <v>22815.3</v>
       </c>
       <c r="B42">
-        <v>6878.31</v>
+        <v>7325.51</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>22972.71</v>
+        <v>22819.85</v>
       </c>
       <c r="B43">
-        <v>6881.67</v>
+        <v>7324.33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>22933.95</v>
+        <v>22806.83</v>
       </c>
       <c r="B44">
-        <v>6890.27</v>
+        <v>7325.94</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>22934.560000000001</v>
+        <v>22814.9</v>
       </c>
       <c r="B45">
-        <v>6894.52</v>
+        <v>7325.89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>22956.09</v>
+        <v>22803.919999999998</v>
       </c>
       <c r="B46">
-        <v>6902.23</v>
+        <v>7327.13</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>22928.9</v>
+        <v>22801.279999999999</v>
       </c>
       <c r="B47">
-        <v>6908.24</v>
+        <v>7298.76</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>22922.66</v>
+        <v>22805.29</v>
       </c>
       <c r="B48">
-        <v>6906.5</v>
+        <v>7298.59</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>22929.919999999998</v>
+        <v>22815.14</v>
       </c>
       <c r="B49">
-        <v>6912.86</v>
+        <v>7297.38</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>22939.279999999999</v>
+        <v>22838</v>
       </c>
       <c r="B50">
-        <v>6917.65</v>
+        <v>7297.96</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>22916.14</v>
+        <v>22831.22</v>
       </c>
       <c r="B51">
-        <v>6914.78</v>
+        <v>7283.91</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>22922.12</v>
+        <v>22826.75</v>
       </c>
       <c r="B52">
-        <v>6917.45</v>
+        <v>7285.75</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>22882.67</v>
+        <v>22825.71</v>
       </c>
       <c r="B53">
-        <v>6926.75</v>
+        <v>7280.15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>22878.87</v>
+        <v>22841.88</v>
       </c>
       <c r="B54">
-        <v>6923.01</v>
+        <v>7271.59</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>22894.77</v>
+        <v>22844.32</v>
       </c>
       <c r="B55">
-        <v>6923.61</v>
+        <v>7269.37</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>22874.33</v>
+        <v>22847.06</v>
       </c>
       <c r="B56">
-        <v>6912.69</v>
+        <v>7264.57</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>22856.89</v>
+        <v>22857.65</v>
       </c>
       <c r="B57">
-        <v>6918.37</v>
+        <v>7261.79</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>22846.22</v>
+        <v>22854.81</v>
       </c>
       <c r="B58">
-        <v>6935.21</v>
+        <v>7264.37</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>22861.84</v>
+        <v>22840.97</v>
       </c>
       <c r="B59">
-        <v>6928.73</v>
+        <v>7259.91</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>22765.84</v>
+        <v>22889.33</v>
       </c>
       <c r="B60">
-        <v>6924.2</v>
+        <v>7257.13</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>22747.91</v>
+        <v>23000.16</v>
       </c>
       <c r="B61">
-        <v>6925.08</v>
+        <v>7247.78</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>22751.26</v>
+        <v>23068.31</v>
       </c>
       <c r="B62">
-        <v>6923.04</v>
+        <v>7244.11</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>22759.23</v>
+        <v>23075.32</v>
       </c>
       <c r="B63">
-        <v>6920.52</v>
+        <v>7245.31</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>22750.31</v>
+        <v>23139.21</v>
       </c>
       <c r="B64">
-        <v>6922.1</v>
+        <v>7251.04</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>22722.95</v>
+        <v>23104.54</v>
       </c>
       <c r="B65">
-        <v>6920.28</v>
+        <v>7243.72</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>22738.81</v>
+        <v>23095.79</v>
       </c>
       <c r="B66">
-        <v>6926.05</v>
+        <v>7238.17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>22755.66</v>
+        <v>23086.27</v>
       </c>
       <c r="B67">
-        <v>6925.18</v>
+        <v>7235.86</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>22809.17</v>
+        <v>23097.72</v>
       </c>
       <c r="B68">
-        <v>6930.45</v>
+        <v>7229.14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>22772.21</v>
+        <v>23089.34</v>
       </c>
       <c r="B69">
-        <v>6931.55</v>
+        <v>7220.38</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>22509.91</v>
+        <v>23120.52</v>
       </c>
       <c r="B70">
-        <v>6933.46</v>
+        <v>7229.78</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>22523.97</v>
+        <v>23122.84</v>
       </c>
       <c r="B71">
-        <v>6933.71</v>
+        <v>7228.94</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>22508.34</v>
+        <v>23114.62</v>
       </c>
       <c r="B72">
-        <v>6933.66</v>
+        <v>7226.47</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>22498.26</v>
+        <v>23115.45</v>
       </c>
       <c r="B73">
-        <v>6934.64</v>
+        <v>7227.68</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>22561.96</v>
+        <v>23099.67</v>
       </c>
       <c r="B74">
-        <v>6933.24</v>
+        <v>7223.96</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>22546.61</v>
+        <v>23095.42</v>
       </c>
       <c r="B75">
-        <v>6936.18</v>
+        <v>7223.66</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>22549.88</v>
+        <v>23114.95</v>
       </c>
       <c r="B76">
-        <v>6936.6</v>
+        <v>7231.19</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>22509.63</v>
+        <v>23095.21</v>
       </c>
       <c r="B77">
-        <v>6927.79</v>
+        <v>7235.05</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>22419.1</v>
+        <v>23104.080000000002</v>
       </c>
       <c r="B78">
-        <v>6932.69</v>
+        <v>7236.73</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>22430.68</v>
+        <v>23103.03</v>
       </c>
       <c r="B79">
-        <v>6932.47</v>
+        <v>7242.19</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>22410.67</v>
+        <v>23108.560000000001</v>
       </c>
       <c r="B80">
-        <v>6926.4</v>
+        <v>7244.9</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>22410.16</v>
+        <v>23100.7</v>
       </c>
       <c r="B81">
-        <v>6913.38</v>
+        <v>7240.39</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>22433.02</v>
+        <v>23098.26</v>
       </c>
       <c r="B82">
-        <v>6904.81</v>
+        <v>7242.36</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>22407.62</v>
+        <v>23104.35</v>
       </c>
       <c r="B83">
-        <v>6897.24</v>
+        <v>7242.39</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>22380.34</v>
+        <v>23044.84</v>
       </c>
       <c r="B84">
-        <v>6909.03</v>
+        <v>7235.27</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>22389.65</v>
+        <v>23017.02</v>
       </c>
       <c r="B85">
-        <v>6924.52</v>
+        <v>7238.34</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>22373.61</v>
+        <v>23031.14</v>
       </c>
       <c r="B86">
-        <v>6910.12</v>
+        <v>7234.84</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>22364.37</v>
+        <v>23019.01</v>
       </c>
       <c r="B87">
-        <v>6917.02</v>
+        <v>7230.81</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>22343.25</v>
+        <v>22985.02</v>
       </c>
       <c r="B88">
-        <v>6909.68</v>
+        <v>7232.37</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>22337.43</v>
+        <v>22973.21</v>
       </c>
       <c r="B89">
-        <v>6903.83</v>
+        <v>7227.67</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>22293.65</v>
+        <v>22976.97</v>
       </c>
       <c r="B90">
-        <v>6893.58</v>
+        <v>7233.88</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>22339.62</v>
+        <v>22985.18</v>
       </c>
       <c r="B91">
-        <v>6880.77</v>
+        <v>7246.45</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>22343</v>
+        <v>22956.46</v>
       </c>
       <c r="B92">
-        <v>6890.42</v>
+        <v>7247.61</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>22330.400000000001</v>
+        <v>22942.17</v>
       </c>
       <c r="B93">
-        <v>6924.49</v>
+        <v>7203.41</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>22357.87</v>
+        <v>22972.46</v>
       </c>
       <c r="B94">
-        <v>6926.81</v>
+        <v>7212.03</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>22411.99</v>
+        <v>22984.89</v>
       </c>
       <c r="B95">
-        <v>6926.44</v>
+        <v>7212.95</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>22417.17</v>
+        <v>22971.53</v>
       </c>
       <c r="B96">
-        <v>6913.99</v>
+        <v>7211.93</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>22424.47</v>
+        <v>22966.84</v>
       </c>
       <c r="B97">
-        <v>6922.92</v>
+        <v>7210.17</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>22397.759999999998</v>
+        <v>23003.86</v>
       </c>
       <c r="B98">
-        <v>6926</v>
+        <v>7210.19</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>22414.19</v>
+        <v>22987.69</v>
       </c>
       <c r="B99">
-        <v>6931.04</v>
+        <v>7205.84</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>22428.31</v>
+        <v>22998.23</v>
       </c>
       <c r="B100">
-        <v>6932.42</v>
+        <v>7211.13</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>22383.95</v>
+        <v>23007.17</v>
       </c>
       <c r="B101">
-        <v>6933.07</v>
+        <v>7209.52</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>22406.39</v>
+        <v>23005.34</v>
       </c>
       <c r="B102">
-        <v>6940.02</v>
+        <v>7209.82</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>22397.07</v>
+        <v>23026.639999999999</v>
       </c>
       <c r="B103">
-        <v>6933.57</v>
+        <v>7222.46</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>22410.400000000001</v>
+        <v>23017.68</v>
       </c>
       <c r="B104">
-        <v>6931.01</v>
+        <v>7218.86</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>22446.7</v>
+        <v>23049.96</v>
       </c>
       <c r="B105">
-        <v>6934.8</v>
+        <v>7208.53</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>22596.71</v>
+        <v>22966.53</v>
       </c>
       <c r="B106">
-        <v>6935.13</v>
+        <v>7220.11</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>22569.46</v>
+        <v>22919.3</v>
       </c>
       <c r="B107">
-        <v>6942.38</v>
+        <v>7217.7</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>22617.05</v>
+        <v>22905.68</v>
       </c>
       <c r="B108">
-        <v>6945.98</v>
+        <v>7214.23</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>22584.06</v>
+        <v>22874.67</v>
       </c>
       <c r="B109">
-        <v>6941.8</v>
+        <v>7211.92</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>22578.07</v>
+        <v>22908.75</v>
       </c>
       <c r="B110">
-        <v>6951.9</v>
+        <v>7211.2</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>22573.35</v>
+        <v>22894.11</v>
       </c>
       <c r="B111">
-        <v>6954.62</v>
+        <v>7208.23</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>22541.84</v>
+        <v>22895.11</v>
       </c>
       <c r="B112">
-        <v>6960</v>
+        <v>7200.36</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>22514.81</v>
+        <v>22902.19</v>
       </c>
       <c r="B113">
-        <v>6961.21</v>
+        <v>7199.12</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>22541.45</v>
+        <v>22901.85</v>
       </c>
       <c r="B114">
-        <v>6976.78</v>
+        <v>7203.62</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>22555.08</v>
+        <v>22910.39</v>
       </c>
       <c r="B115">
-        <v>6968.57</v>
+        <v>7208.44</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>22572.16</v>
+        <v>22911.27</v>
       </c>
       <c r="B116">
-        <v>6959.49</v>
+        <v>7169.57</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>22601.18</v>
+        <v>22901.77</v>
       </c>
       <c r="B117">
-        <v>6956.96</v>
+        <v>7168.81</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>22572.68</v>
+        <v>22883.01</v>
       </c>
       <c r="B118">
-        <v>6958.96</v>
+        <v>7168.5</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>22558.46</v>
+        <v>22887.86</v>
       </c>
       <c r="B119">
-        <v>6960.71</v>
+        <v>7164.3</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>22551.22</v>
+        <v>22882.38</v>
       </c>
       <c r="B120">
-        <v>6960.57</v>
+        <v>7170.97</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>22538.82</v>
+        <v>22866.97</v>
       </c>
       <c r="B121">
-        <v>6959.69</v>
+        <v>7169.21</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>22539.119999999999</v>
+        <v>22867.360000000001</v>
       </c>
       <c r="B122">
-        <v>6964.31</v>
+        <v>7160.44</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>22514.54</v>
+        <v>22884.86</v>
       </c>
       <c r="B123">
-        <v>6962.57</v>
+        <v>7162.89</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>22476.94</v>
+        <v>22887.040000000001</v>
       </c>
       <c r="B124">
-        <v>6960.82</v>
+        <v>7161.24</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>22498.17</v>
+        <v>22878.22</v>
       </c>
       <c r="B125">
-        <v>6958.89</v>
+        <v>7155.06</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>22484.41</v>
+        <v>22891.17</v>
       </c>
       <c r="B126">
-        <v>6955.09</v>
+        <v>7151.3</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>22480.14</v>
+        <v>22906.07</v>
       </c>
       <c r="B127">
-        <v>6962.62</v>
+        <v>7154.5</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>22456.62</v>
+        <v>22898.52</v>
       </c>
       <c r="B128">
-        <v>6953.9</v>
+        <v>7162.3</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>22257.71</v>
+        <v>22965.25</v>
       </c>
       <c r="B129">
-        <v>6958.87</v>
+        <v>7160.65</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>22215.99</v>
+        <v>22958.13</v>
       </c>
       <c r="B130">
-        <v>6959.12</v>
+        <v>7165.4</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>22189.19</v>
+        <v>22964.17</v>
       </c>
       <c r="B131">
-        <v>6957.97</v>
+        <v>7161.28</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>22120.91</v>
+        <v>22963.13</v>
       </c>
       <c r="B132">
-        <v>6953.12</v>
+        <v>7154.35</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>22128.58</v>
+        <v>22954.55</v>
       </c>
       <c r="B133">
-        <v>6965.37</v>
+        <v>7147.79</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>22103.24</v>
+        <v>22974.23</v>
       </c>
       <c r="B134">
-        <v>6963.73</v>
+        <v>7139.96</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>22038.58</v>
+        <v>22958.83</v>
       </c>
       <c r="B135">
-        <v>6962.03</v>
+        <v>7136.23</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>22082.47</v>
+        <v>22966.06</v>
       </c>
       <c r="B136">
-        <v>6955.85</v>
+        <v>7137.11</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>22060.34</v>
+        <v>22969.68</v>
       </c>
       <c r="B137">
-        <v>6962.78</v>
+        <v>7149.66</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>22093.919999999998</v>
+        <v>22967.279999999999</v>
       </c>
       <c r="B138">
-        <v>6949.19</v>
+        <v>7151.18</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>22075.34</v>
+        <v>22977.439999999999</v>
       </c>
       <c r="B139">
-        <v>6947.19</v>
+        <v>7171.15</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>22055.94</v>
+        <v>22976.35</v>
       </c>
       <c r="B140">
-        <v>6960.78</v>
+        <v>7168.05</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>22027.42</v>
+        <v>22980.42</v>
       </c>
       <c r="B141">
-        <v>6963.57</v>
+        <v>7163.99</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>22037.4</v>
+        <v>22981.14</v>
       </c>
       <c r="B142">
-        <v>6952.89</v>
+        <v>7158.41</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>22030.49</v>
+        <v>22941.34</v>
       </c>
       <c r="B143">
-        <v>6957.66</v>
+        <v>7164.39</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>22028.01</v>
+        <v>22954.44</v>
       </c>
       <c r="B144">
-        <v>6952.19</v>
+        <v>7166.28</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>22027.67</v>
+        <v>22958.35</v>
       </c>
       <c r="B145">
-        <v>6947.49</v>
+        <v>7165.34</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>22028.54</v>
+        <v>22962.2</v>
       </c>
       <c r="B146">
-        <v>6947.15</v>
+        <v>7170.47</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>22041.360000000001</v>
+        <v>22952.36</v>
       </c>
       <c r="B147">
-        <v>6947.97</v>
+        <v>7170.5</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>22009.91</v>
+        <v>22944.37</v>
       </c>
       <c r="B148">
-        <v>6950.39</v>
+        <v>7161.59</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>22040.49</v>
+        <v>22933.82</v>
       </c>
       <c r="B149">
-        <v>6947.6</v>
+        <v>7158.74</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>22055.55</v>
+        <v>22935.74</v>
       </c>
       <c r="B150">
-        <v>6956.99</v>
+        <v>7166.46</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>22059.4</v>
+        <v>22949.86</v>
       </c>
       <c r="B151">
-        <v>6959.99</v>
+        <v>7164.06</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>21996.38</v>
+        <v>23066.400000000001</v>
       </c>
       <c r="B152">
-        <v>6955.37</v>
+        <v>7161.12</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>21984.93</v>
+        <v>23028.799999999999</v>
       </c>
       <c r="B153">
-        <v>6958.08</v>
+        <v>7160.84</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>22007.88</v>
+        <v>23017.17</v>
       </c>
       <c r="B154">
-        <v>6973.06</v>
+        <v>7163.75</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>22065.16</v>
+        <v>23031.27</v>
       </c>
       <c r="B155">
-        <v>6973.75</v>
+        <v>7164.73</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>22080.79</v>
+        <v>23024.99</v>
       </c>
       <c r="B156">
-        <v>6982.68</v>
+        <v>7162.64</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>22103.53</v>
+        <v>23007.58</v>
       </c>
       <c r="B157">
-        <v>6996.13</v>
+        <v>7160.75</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>22086.17</v>
+        <v>22977.56</v>
       </c>
       <c r="B158">
-        <v>7000.1</v>
+        <v>7148.66</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>22074.34</v>
+        <v>22990.5</v>
       </c>
       <c r="B159">
-        <v>7004.94</v>
+        <v>7147.02</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>22065.8</v>
+        <v>23000.76</v>
       </c>
       <c r="B160">
-        <v>6998.25</v>
+        <v>7150.37</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>22085.57</v>
+        <v>22994.51</v>
       </c>
       <c r="B161">
-        <v>6999.01</v>
+        <v>7150.34</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>21843.99</v>
+        <v>23206.7</v>
       </c>
       <c r="B162">
-        <v>7009.96</v>
+        <v>7156.42</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>21848.98</v>
+        <v>23190.46</v>
       </c>
       <c r="B163">
-        <v>7008.47</v>
+        <v>7151.67</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>21848.11</v>
+        <v>23173.65</v>
       </c>
       <c r="B164">
-        <v>7017.89</v>
+        <v>7144.76</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>21844.11</v>
+        <v>23198.84</v>
       </c>
       <c r="B165">
-        <v>7022.59</v>
+        <v>7134.39</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>21819.759999999998</v>
+        <v>23191.01</v>
       </c>
       <c r="B166">
-        <v>7020.02</v>
+        <v>7140.2</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>21857.71</v>
+        <v>23205.11</v>
       </c>
       <c r="B167">
-        <v>7018.63</v>
+        <v>7139.67</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>21848.41</v>
+        <v>23279.86</v>
       </c>
       <c r="B168">
-        <v>7018.12</v>
+        <v>7142.58</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>21854.32</v>
+        <v>23262.05</v>
       </c>
       <c r="B169">
-        <v>7018.8</v>
+        <v>7143.89</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>21859.23</v>
+        <v>23264.11</v>
       </c>
       <c r="B170">
-        <v>7017.77</v>
+        <v>7143.63</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>21906.85</v>
+        <v>23277.43</v>
       </c>
       <c r="B171">
-        <v>7021.22</v>
+        <v>7145.3</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>21852.46</v>
+        <v>23264.46</v>
       </c>
       <c r="B172">
-        <v>7015.69</v>
+        <v>7143.7</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>21843.279999999999</v>
+        <v>23274.91</v>
       </c>
       <c r="B173">
-        <v>7015.02</v>
+        <v>7142.36</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>21832.68</v>
+        <v>23318.39</v>
       </c>
       <c r="B174">
-        <v>7014.24</v>
+        <v>7141.72</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>21767.61</v>
+        <v>23309.46</v>
       </c>
       <c r="B175">
-        <v>7014.4</v>
+        <v>7142.1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>21820.15</v>
+        <v>23361.26</v>
       </c>
       <c r="B176">
-        <v>7018.98</v>
+        <v>7139.17</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>21805.71</v>
+        <v>23274.44</v>
       </c>
       <c r="B177">
-        <v>7015.64</v>
+        <v>7124.69</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>21809.3</v>
+        <v>23240.55</v>
       </c>
       <c r="B178">
-        <v>7021.75</v>
+        <v>7112.93</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>21844.02</v>
+        <v>23245.82</v>
       </c>
       <c r="B179">
-        <v>7015.03</v>
+        <v>7113.81</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>21816.97</v>
+        <v>23219.69</v>
       </c>
       <c r="B180">
-        <v>7019</v>
+        <v>7106.09</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>21783.21</v>
+        <v>23195.66</v>
       </c>
       <c r="B181">
-        <v>7010.57</v>
+        <v>7102.11</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>21784.79</v>
+        <v>23193.51</v>
       </c>
       <c r="B182">
-        <v>7007.28</v>
+        <v>7109.41</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>21783.48</v>
+        <v>23199.1</v>
       </c>
       <c r="B183">
-        <v>7012.04</v>
+        <v>7102.73</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>21772.41</v>
+        <v>23180.54</v>
       </c>
       <c r="B184">
-        <v>7017.16</v>
+        <v>7107.65</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>21780.15</v>
+        <v>23155.05</v>
       </c>
       <c r="B185">
-        <v>7014.4</v>
+        <v>7129.61</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>21757.86</v>
+        <v>23146.63</v>
       </c>
       <c r="B186">
-        <v>7022.95</v>
+        <v>7131.71</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>21749.51</v>
+        <v>23137.13</v>
       </c>
       <c r="B187">
-        <v>7023.57</v>
+        <v>7125.57</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>21728.86</v>
+        <v>23163.24</v>
       </c>
       <c r="B188">
-        <v>7028.14</v>
+        <v>7118.57</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>21713.79</v>
+        <v>23164.91</v>
       </c>
       <c r="B189">
-        <v>7026.5</v>
+        <v>7131.32</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>21676.66</v>
+        <v>23169.1</v>
       </c>
       <c r="B190">
-        <v>7031.55</v>
+        <v>7145.15</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>21703.360000000001</v>
+        <v>23155.38</v>
       </c>
       <c r="B191">
-        <v>7041.16</v>
+        <v>7156.63</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>21722.39</v>
+        <v>23174.28</v>
       </c>
       <c r="B192">
-        <v>7038.66</v>
+        <v>7150.26</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>21737.16</v>
+        <v>23159.83</v>
       </c>
       <c r="B193">
-        <v>7041.31</v>
+        <v>7150.97</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>21726.07</v>
+        <v>23164.35</v>
       </c>
       <c r="B194">
-        <v>7038.46</v>
+        <v>7155.75</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>21713.61</v>
+        <v>23163.4</v>
       </c>
       <c r="B195">
-        <v>7040.31</v>
+        <v>7155.45</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>21715.46</v>
+        <v>23173.3</v>
       </c>
       <c r="B196">
-        <v>7038.89</v>
+        <v>7148.52</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>21729.06</v>
+        <v>23184.52</v>
       </c>
       <c r="B197">
-        <v>7041.1</v>
+        <v>7153.84</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>21770.89</v>
+        <v>23216.97</v>
       </c>
       <c r="B198">
-        <v>7042.71</v>
+        <v>7159.25</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>21827.360000000001</v>
+        <v>23164.63</v>
       </c>
       <c r="B199">
-        <v>7039.84</v>
+        <v>7158.81</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>21813.75</v>
+        <v>23128.32</v>
       </c>
       <c r="B200">
-        <v>7042.04</v>
+        <v>7160.83</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>21823.49</v>
+        <v>23065.62</v>
       </c>
       <c r="B201">
-        <v>7042.44</v>
+        <v>7151.45</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>21861.56</v>
+        <v>23032.87</v>
       </c>
       <c r="B202">
-        <v>7033.64</v>
+        <v>7146.86</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>21845.71</v>
+        <v>23041.14</v>
       </c>
       <c r="B203">
-        <v>7033.32</v>
+        <v>7147.94</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>21828.92</v>
+        <v>23018.9</v>
       </c>
       <c r="B204">
-        <v>7032.95</v>
+        <v>7152.88</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>21831.66</v>
+        <v>23016.58</v>
       </c>
       <c r="B205">
-        <v>7036.44</v>
+        <v>7153.01</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>21852.44</v>
+        <v>23040.23</v>
       </c>
       <c r="B206">
-        <v>7042.87</v>
+        <v>7144.16</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>21860.52</v>
+        <v>23078.62</v>
       </c>
       <c r="B207">
-        <v>7043.96</v>
+        <v>7140.75</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>21847.17</v>
+        <v>23276.81</v>
       </c>
       <c r="B208">
-        <v>7031.46</v>
+        <v>7208.19</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>21858.400000000001</v>
+        <v>23234.35</v>
       </c>
       <c r="B209">
-        <v>7033.82</v>
+        <v>7202.92</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>21862.080000000002</v>
+        <v>23249.01</v>
       </c>
       <c r="B210">
-        <v>7035.25</v>
+        <v>7199.96</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>21858.25</v>
+        <v>23256.76</v>
       </c>
       <c r="B211">
-        <v>7033.14</v>
+        <v>7200.02</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>21842.25</v>
+        <v>23267.02</v>
       </c>
       <c r="B212">
-        <v>7033.92</v>
+        <v>7198.32</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>21850.06</v>
+        <v>23280.74</v>
       </c>
       <c r="B213">
-        <v>7032.53</v>
+        <v>7195.95</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>21859.599999999999</v>
+        <v>23287.53</v>
       </c>
       <c r="B214">
-        <v>7033.79</v>
+        <v>7193.58</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>21872.77</v>
+        <v>23281.96</v>
       </c>
       <c r="B215">
-        <v>7037.57</v>
+        <v>7185.36</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>21890.75</v>
+        <v>23292.21</v>
       </c>
       <c r="B216">
-        <v>7036.6</v>
+        <v>7187.03</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>21898.2</v>
+        <v>23307.29</v>
       </c>
       <c r="B217">
-        <v>7035.47</v>
+        <v>7182.61</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>21889.16</v>
+        <v>23334.53</v>
       </c>
       <c r="B218">
-        <v>7035.72</v>
+        <v>7171.08</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>21861.8</v>
+        <v>23340.37</v>
       </c>
       <c r="B219">
-        <v>7034.4</v>
+        <v>7168.01</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>21809.8</v>
+        <v>23348.240000000002</v>
       </c>
       <c r="B220">
-        <v>7033.04</v>
+        <v>7171.22</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>21800.22</v>
+        <v>23287.89</v>
       </c>
       <c r="B221">
-        <v>7032.33</v>
+        <v>7170.07</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>21762.560000000001</v>
+        <v>23321.17</v>
       </c>
       <c r="B222">
-        <v>7032.88</v>
+        <v>7177.92</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>21680.2</v>
+        <v>23334.31</v>
       </c>
       <c r="B223">
-        <v>7028.73</v>
+        <v>7180.86</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>21686.25</v>
+        <v>23353.32</v>
       </c>
       <c r="B224">
-        <v>7029.5</v>
+        <v>7179.33</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>21664.05</v>
+        <v>23344.93</v>
       </c>
       <c r="B225">
-        <v>7030.73</v>
+        <v>7181.35</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>21675.62</v>
+        <v>23362.77</v>
       </c>
       <c r="B226">
-        <v>7029.68</v>
+        <v>7173.49</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>21694.27</v>
+        <v>23344.73</v>
       </c>
       <c r="B227">
-        <v>7031.54</v>
+        <v>7170.4</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>21624.58</v>
+        <v>23333.82</v>
       </c>
       <c r="B228">
-        <v>7034.07</v>
+        <v>7177.61</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>21630.9</v>
+        <v>23299.25</v>
       </c>
       <c r="B229">
-        <v>7037.94</v>
+        <v>7175.92</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>21618.240000000002</v>
+        <v>23317.09</v>
       </c>
       <c r="B230">
-        <v>7041.42</v>
+        <v>7172.15</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>21600.1</v>
+        <v>23336.799999999999</v>
       </c>
       <c r="B231">
-        <v>7097.41</v>
+        <v>7218.49</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>21613.49</v>
+        <v>23315.48</v>
       </c>
       <c r="B232">
-        <v>7095.72</v>
+        <v>7215.86</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>21620.93</v>
+        <v>23314.03</v>
       </c>
       <c r="B233">
-        <v>7096.24</v>
+        <v>7220.52</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>21659.77</v>
+        <v>23334.97</v>
       </c>
       <c r="B234">
-        <v>7096.01</v>
+        <v>7216.97</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>21647.37</v>
+        <v>23340.26</v>
       </c>
       <c r="B235">
-        <v>7100.9</v>
+        <v>7217.37</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>21652.53</v>
+        <v>23351.27</v>
       </c>
       <c r="B236">
-        <v>7100.88</v>
+        <v>7214.3</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>21672.97</v>
+        <v>23342.76</v>
       </c>
       <c r="B237">
-        <v>7103.42</v>
+        <v>7218.63</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>21703.46</v>
+        <v>23350.9</v>
       </c>
       <c r="B238">
-        <v>7106.22</v>
+        <v>7219.66</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>21728.11</v>
+        <v>23329.8</v>
       </c>
       <c r="B239">
-        <v>7101.69</v>
+        <v>7219.08</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>21759.52</v>
+        <v>23332.44</v>
       </c>
       <c r="B240">
-        <v>7106.58</v>
+        <v>7220.84</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>21789.96</v>
+        <v>23325.759999999998</v>
       </c>
       <c r="B241">
-        <v>7103.98</v>
+        <v>7222.54</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>21756.48</v>
+        <v>23319.74</v>
       </c>
       <c r="B242">
-        <v>7106.45</v>
+        <v>7223.59</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>21754.74</v>
+        <v>23331.57</v>
       </c>
       <c r="B243">
-        <v>7103.54</v>
+        <v>7215.28</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>21591.040000000001</v>
+        <v>23284.76</v>
       </c>
       <c r="B244">
-        <v>7102.83</v>
+        <v>7219.81</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>21684.52</v>
+        <v>23222.92</v>
       </c>
       <c r="B245">
-        <v>7101.58</v>
+        <v>7224.43</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>21707.55</v>
+        <v>23191.52</v>
       </c>
       <c r="B246">
-        <v>7105.65</v>
+        <v>7220.4</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>21685.75</v>
+        <v>23196.48</v>
       </c>
       <c r="B247">
-        <v>7101.06</v>
+        <v>7223.11</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>21682.17</v>
+        <v>23220.240000000002</v>
       </c>
       <c r="B248">
-        <v>7106.22</v>
+        <v>7217.75</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>21676.62</v>
+        <v>23214.53</v>
       </c>
       <c r="B249">
-        <v>7099.71</v>
+        <v>7216.09</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>21695.11</v>
+        <v>23234.44</v>
       </c>
       <c r="B250">
-        <v>7098.08</v>
+        <v>7201.57</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>21703.96</v>
+        <v>23281.29</v>
       </c>
       <c r="B251">
-        <v>7095.47</v>
+        <v>7199.94</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>21756.25</v>
+        <v>23298.95</v>
       </c>
       <c r="B252">
-        <v>7104.21</v>
+        <v>7178.12</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>21759.759999999998</v>
+        <v>23306.25</v>
       </c>
       <c r="B253">
-        <v>7106.08</v>
+        <v>7186.22</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>21721.13</v>
+        <v>23314.54</v>
       </c>
       <c r="B254">
-        <v>7103.54</v>
+        <v>7179.5</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>21717.15</v>
+        <v>23357.91</v>
       </c>
       <c r="B255">
-        <v>7102.82</v>
+        <v>7181.87</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>21721.88</v>
+        <v>23378.35</v>
       </c>
       <c r="B256">
-        <v>7099.79</v>
+        <v>7179.98</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>21725.5</v>
+        <v>23420.93</v>
       </c>
       <c r="B257">
-        <v>7101.04</v>
+        <v>7180.95</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258">
-        <v>21709.360000000001</v>
+        <v>23442.2</v>
       </c>
       <c r="B258">
-        <v>7102.58</v>
+        <v>7178.07</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
-        <v>21711.13</v>
+        <v>23428.9</v>
       </c>
       <c r="B259">
-        <v>7105.8</v>
+        <v>7182.3</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260">
-        <v>21751.01</v>
+        <v>23470.7</v>
       </c>
       <c r="B260">
-        <v>7105.91</v>
+        <v>7183.99</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261">
-        <v>21762.080000000002</v>
+        <v>23490.12</v>
       </c>
       <c r="B261">
-        <v>7106.6</v>
+        <v>7179.63</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262">
-        <v>21746.51</v>
+        <v>23497.89</v>
       </c>
       <c r="B262">
-        <v>7099.5</v>
+        <v>7175.63</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263">
-        <v>21763.14</v>
+        <v>23496.74</v>
       </c>
       <c r="B263">
-        <v>7100.46</v>
+        <v>7174.14</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264">
-        <v>21792.99</v>
+        <v>23496.81</v>
       </c>
       <c r="B264">
-        <v>7102.59</v>
+        <v>7167.56</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265">
-        <v>21792.61</v>
+        <v>23503.55</v>
       </c>
       <c r="B265">
-        <v>7101.19</v>
+        <v>7167.81</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266">
-        <v>21790.91</v>
+        <v>23485.13</v>
       </c>
       <c r="B266">
-        <v>7103.4</v>
+        <v>7164.52</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267">
-        <v>21818.91</v>
+        <v>23533.52</v>
       </c>
       <c r="B267">
-        <v>7098.9</v>
+        <v>7161.95</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268">
-        <v>21973.31</v>
+        <v>23571</v>
       </c>
       <c r="B268">
-        <v>7099.86</v>
+        <v>7160.7</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269">
-        <v>21980.89</v>
+        <v>23577.9</v>
       </c>
       <c r="B269">
-        <v>7107.17</v>
+        <v>7154.27</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270">
-        <v>21936.23</v>
+        <v>23615.040000000001</v>
       </c>
       <c r="B270">
-        <v>7106.95</v>
+        <v>7166.01</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271">
-        <v>21951.23</v>
+        <v>23641.61</v>
       </c>
       <c r="B271">
-        <v>7106.78</v>
+        <v>7173.16</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272">
-        <v>21973.08</v>
+        <v>23602.33</v>
       </c>
       <c r="B272">
-        <v>7105.18</v>
+        <v>7182.31</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273">
-        <v>21976.27</v>
+        <v>23528.21</v>
       </c>
       <c r="B273">
-        <v>7104.79</v>
+        <v>7183.32</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274">
-        <v>21971.86</v>
+        <v>23565.54</v>
       </c>
       <c r="B274">
-        <v>7101.78</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275">
-        <v>21988.03</v>
+        <v>23593.68</v>
       </c>
       <c r="B275">
-        <v>7109.95</v>
+        <v>7191.96</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276">
-        <v>21999.85</v>
+        <v>23576.63</v>
       </c>
       <c r="B276">
-        <v>7120.26</v>
+        <v>7188.82</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277">
-        <v>22432.33</v>
+        <v>23569.66</v>
       </c>
       <c r="B277">
-        <v>7186.34</v>
+        <v>7198.64</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278">
-        <v>22421.01</v>
+        <v>23559.5</v>
       </c>
       <c r="B278">
-        <v>7187.72</v>
+        <v>7211.58</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279">
-        <v>22435.52</v>
+        <v>23550.15</v>
       </c>
       <c r="B279">
-        <v>7188.12</v>
+        <v>7212.95</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280">
-        <v>22459.97</v>
+        <v>23509.01</v>
       </c>
       <c r="B280">
-        <v>7195.31</v>
+        <v>7206.65</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281">
-        <v>22468.82</v>
+        <v>23515.89</v>
       </c>
       <c r="B281">
-        <v>7191.63</v>
+        <v>7207.62</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282">
-        <v>22453.95</v>
+        <v>23525.93</v>
       </c>
       <c r="B282">
-        <v>7186.06</v>
+        <v>7206.39</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283">
-        <v>22459.32</v>
+        <v>23545.35</v>
       </c>
       <c r="B283">
-        <v>7187.24</v>
+        <v>7204.81</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284">
-        <v>22447.78</v>
+        <v>23540.19</v>
       </c>
       <c r="B284">
-        <v>7187.46</v>
+        <v>7211.92</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285">
-        <v>22440.55</v>
+        <v>23556.400000000001</v>
       </c>
       <c r="B285">
-        <v>7197.95</v>
+        <v>7202.42</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286">
-        <v>22451.67</v>
+        <v>23537.98</v>
       </c>
       <c r="B286">
-        <v>7199.37</v>
+        <v>7203.84</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287">
-        <v>22452.68</v>
+        <v>23517.37</v>
       </c>
       <c r="B287">
-        <v>7201.23</v>
+        <v>7195.75</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288">
-        <v>22459.69</v>
+        <v>23511.23</v>
       </c>
       <c r="B288">
-        <v>7196.46</v>
+        <v>7199.37</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>22456.69</v>
+        <v>23525.14</v>
       </c>
       <c r="B289">
-        <v>7194.89</v>
+        <v>7199.78</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>22583.29</v>
+        <v>23645.9</v>
       </c>
       <c r="B290">
-        <v>7198.02</v>
+        <v>7202.62</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>22573.8</v>
+        <v>23653.62</v>
       </c>
       <c r="B291">
-        <v>7201.11</v>
+        <v>7204.68</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>22549</v>
+        <v>23661.84</v>
       </c>
       <c r="B292">
-        <v>7202.93</v>
+        <v>7208.03</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>22592.53</v>
+        <v>23659.7</v>
       </c>
       <c r="B293">
-        <v>7204.08</v>
+        <v>7210.21</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>22575.42</v>
+        <v>23656.81</v>
       </c>
       <c r="B294">
-        <v>7208.64</v>
+        <v>7227.57</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>22548.66</v>
+        <v>23655.63</v>
       </c>
       <c r="B295">
-        <v>7198.23</v>
+        <v>7220.13</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>22553.63</v>
+        <v>23653.09</v>
       </c>
       <c r="B296">
-        <v>7187.71</v>
+        <v>7225.07</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>22566.74</v>
+        <v>23653.37</v>
       </c>
       <c r="B297">
-        <v>7178.49</v>
+        <v>7223.1</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>22569.71</v>
+        <v>23649.4</v>
       </c>
       <c r="B298">
-        <v>7189.05</v>
+        <v>7235.15</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>22553.64</v>
+        <v>23669.23</v>
       </c>
       <c r="B299">
-        <v>7195.31</v>
+        <v>7229.5</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>22695.919999999998</v>
+        <v>23715.98</v>
       </c>
       <c r="B300">
-        <v>7265.38</v>
+        <v>7288.58</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>22679.03</v>
+        <v>23715.47</v>
       </c>
       <c r="B301">
-        <v>7265.44</v>
+        <v>7284.84</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>22678.36</v>
+        <v>23674.66</v>
       </c>
       <c r="B302">
-        <v>7266.07</v>
+        <v>7290.56</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>22680.65</v>
+        <v>23684.94</v>
       </c>
       <c r="B303">
-        <v>7265.73</v>
+        <v>7291.76</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>22691.43</v>
+        <v>23693.439999999999</v>
       </c>
       <c r="B304">
-        <v>7268.76</v>
+        <v>7285.33</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305">
-        <v>22699.39</v>
+        <v>23693.09</v>
       </c>
       <c r="B305">
-        <v>7270.3</v>
+        <v>7287.09</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306">
-        <v>22686.05</v>
+        <v>23700.58</v>
       </c>
       <c r="B306">
-        <v>7272.62</v>
+        <v>7281.65</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307">
-        <v>22687.53</v>
+        <v>23686.84</v>
       </c>
       <c r="B307">
-        <v>7270.67</v>
+        <v>7277.94</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308">
-        <v>22696.49</v>
+        <v>23693.86</v>
       </c>
       <c r="B308">
-        <v>7267.87</v>
+        <v>7279.51</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309">
-        <v>22689.9</v>
+        <v>23711.53</v>
       </c>
       <c r="B309">
-        <v>7253.03</v>
+        <v>7283.37</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310">
-        <v>22698.62</v>
+        <v>23711.86</v>
       </c>
       <c r="B310">
-        <v>7257.52</v>
+        <v>7279.81</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311">
-        <v>22693.67</v>
+        <v>23705.87</v>
       </c>
       <c r="B311">
-        <v>7261.53</v>
+        <v>7280.01</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312">
-        <v>22744.85</v>
+        <v>23703.01</v>
       </c>
       <c r="B312">
-        <v>7265.57</v>
+        <v>7281.91</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313">
-        <v>22816.01</v>
+        <v>23771.95</v>
       </c>
       <c r="B313">
-        <v>7268.65</v>
+        <v>7280.41</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314">
-        <v>22816.81</v>
+        <v>23909.98</v>
       </c>
       <c r="B314">
-        <v>7267</v>
+        <v>7280.64</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315">
-        <v>22882.01</v>
+        <v>23951.68</v>
       </c>
       <c r="B315">
-        <v>7271.13</v>
+        <v>7285.02</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316">
-        <v>22897.14</v>
+        <v>23966.2</v>
       </c>
       <c r="B316">
-        <v>7272.09</v>
+        <v>7279.75</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317">
-        <v>22882.75</v>
+        <v>23952.01</v>
       </c>
       <c r="B317">
-        <v>7279.6</v>
+        <v>7274.82</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>22922.080000000002</v>
+        <v>23922.16</v>
       </c>
       <c r="B318">
-        <v>7281.75</v>
+        <v>7263.61</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319">
-        <v>22919</v>
+        <v>23926.18</v>
       </c>
       <c r="B319">
-        <v>7275.04</v>
+        <v>7266.16</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320">
-        <v>22933.37</v>
+        <v>23963.48</v>
       </c>
       <c r="B320">
-        <v>7280.57</v>
+        <v>7266.61</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>22893.79</v>
+        <v>24000.12</v>
       </c>
       <c r="B321">
-        <v>7283.76</v>
+        <v>7274.72</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>22881.06</v>
+        <v>23989.65</v>
       </c>
       <c r="B322">
-        <v>7275.47</v>
+        <v>7268.56</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>22887.31</v>
+        <v>24050.05</v>
       </c>
       <c r="B323">
-        <v>7287.37</v>
+        <v>7296.74</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>22884.97</v>
+        <v>24051.33</v>
       </c>
       <c r="B324">
-        <v>7281.65</v>
+        <v>7296.78</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>22879.57</v>
+        <v>24022.41</v>
       </c>
       <c r="B325">
-        <v>7284.01</v>
+        <v>7297.33</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>22907.37</v>
+        <v>24041.31</v>
       </c>
       <c r="B326">
-        <v>7281.33</v>
+        <v>7302.36</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>22907.41</v>
+        <v>24049.18</v>
       </c>
       <c r="B327">
-        <v>7283.41</v>
+        <v>7308.97</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>22926.45</v>
+        <v>24037.65</v>
       </c>
       <c r="B328">
-        <v>7284.63</v>
+        <v>7308.51</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>22914.76</v>
+        <v>23996.59</v>
       </c>
       <c r="B329">
-        <v>7277.4</v>
+        <v>7303.26</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>22886.16</v>
+        <v>23965.39</v>
       </c>
       <c r="B330">
-        <v>7279.52</v>
+        <v>7304.08</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>22902.22</v>
+        <v>23952.2</v>
       </c>
       <c r="B331">
-        <v>7289.65</v>
+        <v>7302.39</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>22887.65</v>
+        <v>24002.41</v>
       </c>
       <c r="B332">
-        <v>7292.72</v>
+        <v>7302.66</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>22893.42</v>
+        <v>24022.38</v>
       </c>
       <c r="B333">
-        <v>7294.89</v>
+        <v>7304.58</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>22928.46</v>
+        <v>23996.67</v>
       </c>
       <c r="B334">
-        <v>7292.51</v>
+        <v>7294.57</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>22935.35</v>
+        <v>23994.87</v>
       </c>
       <c r="B335">
-        <v>7297.23</v>
+        <v>7291.59</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>22956.44</v>
+        <v>24139.31</v>
       </c>
       <c r="B336">
-        <v>7299.35</v>
+        <v>7297.47</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>22921.71</v>
+        <v>24052.06</v>
       </c>
       <c r="B337">
-        <v>7305.9</v>
+        <v>7296.41</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>22938.35</v>
+        <v>23996.95</v>
       </c>
       <c r="B338">
-        <v>7315.11</v>
+        <v>7295.64</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>22928.84</v>
+        <v>24026.080000000002</v>
       </c>
       <c r="B339">
-        <v>7306.9</v>
+        <v>7294.03</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>22911.11</v>
+        <v>24058.03</v>
       </c>
       <c r="B340">
-        <v>7319.36</v>
+        <v>7296.93</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>22923.439999999999</v>
+        <v>24051.279999999999</v>
       </c>
       <c r="B341">
-        <v>7321.5</v>
+        <v>7297.28</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>22942.15</v>
+        <v>24097.95</v>
       </c>
       <c r="B342">
-        <v>7317.14</v>
+        <v>7305.92</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>22936.05</v>
+        <v>24070.84</v>
       </c>
       <c r="B343">
-        <v>7318.74</v>
+        <v>7303.66</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>22906.33</v>
+        <v>24070.94</v>
       </c>
       <c r="B344">
-        <v>7289.22</v>
+        <v>7312.15</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>22868.35</v>
+        <v>24063.82</v>
       </c>
       <c r="B345">
-        <v>7290.49</v>
+        <v>7302.41</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>22882.27</v>
+        <v>24074.07</v>
       </c>
       <c r="B346">
-        <v>7282.59</v>
+        <v>7264.58</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>22848.07</v>
+        <v>24093.81</v>
       </c>
       <c r="B347">
-        <v>7285.51</v>
+        <v>7267.4</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>22808.959999999999</v>
+        <v>24103.61</v>
       </c>
       <c r="B348">
-        <v>7284.81</v>
+        <v>7266.72</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>22795.69</v>
+        <v>24121.06</v>
       </c>
       <c r="B349">
-        <v>7286.19</v>
+        <v>7274.76</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>22792.59</v>
+        <v>24105.86</v>
       </c>
       <c r="B350">
-        <v>7285.6</v>
+        <v>7279.33</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>22752.74</v>
+        <v>24112.79</v>
       </c>
       <c r="B351">
-        <v>7281.79</v>
+        <v>7277.81</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>22794.14</v>
+        <v>24105.54</v>
       </c>
       <c r="B352">
-        <v>7279.02</v>
+        <v>7276.49</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>22782.17</v>
+        <v>24112.05</v>
       </c>
       <c r="B353">
-        <v>7289.72</v>
+        <v>7276.44</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>22801.31</v>
+        <v>24105.71</v>
       </c>
       <c r="B354">
-        <v>7291.34</v>
+        <v>7277.21</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>22793.8</v>
+        <v>24095.05</v>
       </c>
       <c r="B355">
-        <v>7291.2</v>
+        <v>7276.74</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>22843.21</v>
+        <v>24090.97</v>
       </c>
       <c r="B356">
-        <v>7293.72</v>
+        <v>7282.05</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>22836.02</v>
+        <v>24088.11</v>
       </c>
       <c r="B357">
-        <v>7295.19</v>
+        <v>7282.94</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>22829.02</v>
+        <v>24107.7</v>
       </c>
       <c r="B358">
-        <v>7296.69</v>
+        <v>7282.95</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>22879.57</v>
+        <v>24077.87</v>
       </c>
       <c r="B359">
-        <v>7297.65</v>
+        <v>7283.33</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>22906.19</v>
+        <v>24007.759999999998</v>
       </c>
       <c r="B360">
-        <v>7293.87</v>
+        <v>7286.08</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>22933.439999999999</v>
+        <v>24097.09</v>
       </c>
       <c r="B361">
-        <v>7292.15</v>
+        <v>7282.96</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>22902.68</v>
+        <v>24061.91</v>
       </c>
       <c r="B362">
-        <v>7280.97</v>
+        <v>7280.56</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>22902.14</v>
+        <v>24077.89</v>
       </c>
       <c r="B363">
-        <v>7279.72</v>
+        <v>7282.75</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>22925.63</v>
+        <v>24055.22</v>
       </c>
       <c r="B364">
-        <v>7295.08</v>
+        <v>7289.57</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>22944.240000000002</v>
+        <v>24031.33</v>
       </c>
       <c r="B365">
-        <v>7294.51</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>22951.25</v>
+        <v>23998.38</v>
       </c>
       <c r="B366">
-        <v>7287.11</v>
+        <v>7274.41</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>22933.56</v>
+        <v>23995.81</v>
       </c>
       <c r="B367">
-        <v>7297.61</v>
+        <v>7273.95</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>22928.07</v>
+        <v>24007.61</v>
       </c>
       <c r="B368">
-        <v>7292.37</v>
+        <v>7277.92</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369">
-        <v>22696.52</v>
+        <v>24099.31</v>
       </c>
       <c r="B369">
-        <v>7336.31</v>
+        <v>7291.33</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370">
-        <v>22694.1</v>
+        <v>24026.35</v>
       </c>
       <c r="B370">
-        <v>7332.81</v>
+        <v>7294.15</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371">
-        <v>22721.09</v>
+        <v>24066.75</v>
       </c>
       <c r="B371">
-        <v>7330.17</v>
+        <v>7296.77</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372">
-        <v>22713.99</v>
+        <v>24085.52</v>
       </c>
       <c r="B372">
-        <v>7333.44</v>
+        <v>7293.77</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>22712.89</v>
+        <v>24081.57</v>
       </c>
       <c r="B373">
-        <v>7343.1</v>
+        <v>7294.65</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>22679.91</v>
+        <v>24038.48</v>
       </c>
       <c r="B374">
-        <v>7341.6</v>
+        <v>7290.32</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375">
-        <v>22712.82</v>
+        <v>24014.16</v>
       </c>
       <c r="B375">
-        <v>7338.41</v>
+        <v>7289.11</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376">
-        <v>22742.78</v>
+        <v>23987.13</v>
       </c>
       <c r="B376">
-        <v>7338.26</v>
+        <v>7286.57</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377">
-        <v>22731.17</v>
+        <v>23990.86</v>
       </c>
       <c r="B377">
-        <v>7337.33</v>
+        <v>7282.77</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>22726</v>
+        <v>23968.97</v>
       </c>
       <c r="B378">
-        <v>7339.22</v>
+        <v>7281.39</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379">
-        <v>22720.03</v>
+        <v>23919.58</v>
       </c>
       <c r="B379">
-        <v>7340.67</v>
+        <v>7280.94</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380">
-        <v>22724.17</v>
+        <v>23937.73</v>
       </c>
       <c r="B380">
-        <v>7334.63</v>
+        <v>7279.16</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381">
-        <v>22718.15</v>
+        <v>23963.63</v>
       </c>
       <c r="B381">
-        <v>7332.9</v>
+        <v>7280.5</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382">
-        <v>22819.87</v>
+        <v>24059.09</v>
       </c>
       <c r="B382">
-        <v>7331.07</v>
+        <v>7282.53</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383">
-        <v>22747.85</v>
+        <v>24127.26</v>
       </c>
       <c r="B383">
-        <v>7327.52</v>
+        <v>7292.53</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384">
-        <v>22720.32</v>
+        <v>24132.17</v>
       </c>
       <c r="B384">
-        <v>7322.79</v>
+        <v>7284.74</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385">
-        <v>22740.68</v>
+        <v>24160.5</v>
       </c>
       <c r="B385">
-        <v>7323.33</v>
+        <v>7291.69</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386">
-        <v>22797.4</v>
+        <v>24158.04</v>
       </c>
       <c r="B386">
-        <v>7326</v>
+        <v>7293.73</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387">
-        <v>22815.3</v>
+        <v>24160.31</v>
       </c>
       <c r="B387">
-        <v>7325.51</v>
+        <v>7297.22</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388">
-        <v>22819.85</v>
+        <v>24153.8</v>
       </c>
       <c r="B388">
-        <v>7324.33</v>
+        <v>7283.84</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389">
-        <v>22806.83</v>
+        <v>24148.19</v>
       </c>
       <c r="B389">
-        <v>7325.94</v>
+        <v>7285.44</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390">
-        <v>22814.9</v>
+        <v>24158.22</v>
       </c>
       <c r="B390">
-        <v>7325.89</v>
+        <v>7282.26</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391">
-        <v>22803.919999999998</v>
+        <v>24148.94</v>
       </c>
       <c r="B391">
-        <v>7327.13</v>
+        <v>7274.83</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392">
-        <v>22801.279999999999</v>
+        <v>24180.75</v>
       </c>
       <c r="B392">
-        <v>7298.76</v>
+        <v>7285.58</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393">
-        <v>22805.29</v>
+        <v>24169.5</v>
       </c>
       <c r="B393">
-        <v>7298.59</v>
+        <v>7279.28</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394">
-        <v>22815.14</v>
+        <v>24135.54</v>
       </c>
       <c r="B394">
-        <v>7297.38</v>
+        <v>7279.08</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395">
-        <v>22838</v>
+        <v>24152.65</v>
       </c>
       <c r="B395">
-        <v>7297.96</v>
+        <v>7276.26</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396">
-        <v>22831.22</v>
+        <v>24160.959999999999</v>
       </c>
       <c r="B396">
-        <v>7283.91</v>
+        <v>7285.59</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397">
-        <v>22826.75</v>
+        <v>24166.92</v>
       </c>
       <c r="B397">
-        <v>7285.75</v>
+        <v>7285.55</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398">
-        <v>22825.71</v>
+        <v>24143.87</v>
       </c>
       <c r="B398">
-        <v>7280.15</v>
+        <v>7282.11</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399">
-        <v>22841.88</v>
+        <v>24154.23</v>
       </c>
       <c r="B399">
-        <v>7271.59</v>
+        <v>7282.25</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400">
-        <v>22844.32</v>
+        <v>24179.26</v>
       </c>
       <c r="B400">
-        <v>7269.37</v>
+        <v>7283.61</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401">
-        <v>22847.06</v>
+        <v>24185.99</v>
       </c>
       <c r="B401">
-        <v>7264.57</v>
+        <v>7283.89</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402">
-        <v>22857.65</v>
+        <v>24172.86</v>
       </c>
       <c r="B402">
-        <v>7261.79</v>
+        <v>7285.29</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>22854.81</v>
+        <v>24178.11</v>
       </c>
       <c r="B403">
-        <v>7264.37</v>
+        <v>7282.19</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404">
-        <v>22840.97</v>
+        <v>24201.96</v>
       </c>
       <c r="B404">
-        <v>7259.91</v>
+        <v>7278.85</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>22889.33</v>
+        <v>24122.18</v>
       </c>
       <c r="B405">
-        <v>7257.13</v>
+        <v>7279.19</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406">
-        <v>23000.16</v>
+        <v>24195.78</v>
       </c>
       <c r="B406">
-        <v>7247.78</v>
+        <v>7277.38</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407">
-        <v>23068.31</v>
+        <v>24125.78</v>
       </c>
       <c r="B407">
-        <v>7244.11</v>
+        <v>7279.5</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408">
-        <v>23075.32</v>
+        <v>24085.65</v>
       </c>
       <c r="B408">
-        <v>7245.31</v>
+        <v>7286.1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409">
-        <v>23139.21</v>
+        <v>24088.77</v>
       </c>
       <c r="B409">
-        <v>7251.04</v>
+        <v>7294.49</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410">
-        <v>23104.54</v>
+        <v>24096.17</v>
       </c>
       <c r="B410">
-        <v>7243.72</v>
+        <v>7309.41</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411">
-        <v>23095.79</v>
+        <v>24124.9</v>
       </c>
       <c r="B411">
-        <v>7238.17</v>
+        <v>7302.97</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412">
-        <v>23086.27</v>
+        <v>24097.7</v>
       </c>
       <c r="B412">
-        <v>7235.86</v>
+        <v>7299.75</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413">
-        <v>23097.72</v>
+        <v>24085.29</v>
       </c>
       <c r="B413">
-        <v>7229.14</v>
+        <v>7303.4</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414">
-        <v>23089.34</v>
+        <v>24097.78</v>
       </c>
       <c r="B414">
-        <v>7220.38</v>
+        <v>7302.25</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415">
-        <v>23120.52</v>
+        <v>23946.61</v>
       </c>
       <c r="B415">
-        <v>7229.78</v>
+        <v>7254.19</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416">
-        <v>23122.84</v>
+        <v>23912.32</v>
       </c>
       <c r="B416">
-        <v>7228.94</v>
+        <v>7254.74</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417">
-        <v>23114.62</v>
+        <v>23922.04</v>
       </c>
       <c r="B417">
-        <v>7226.47</v>
+        <v>7254.16</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>23115.45</v>
+        <v>23898.13</v>
       </c>
       <c r="B418">
-        <v>7227.68</v>
+        <v>7251.59</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>23099.67</v>
+        <v>23880.43</v>
       </c>
       <c r="B419">
-        <v>7223.96</v>
+        <v>7250.65</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420">
-        <v>23095.42</v>
+        <v>23875.03</v>
       </c>
       <c r="B420">
-        <v>7223.66</v>
+        <v>7253.28</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421">
-        <v>23114.95</v>
+        <v>23878.95</v>
       </c>
       <c r="B421">
-        <v>7231.19</v>
+        <v>7252.17</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>23095.21</v>
+        <v>23876.86</v>
       </c>
       <c r="B422">
-        <v>7235.05</v>
+        <v>7251.54</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423">
-        <v>23104.080000000002</v>
+        <v>23907.27</v>
       </c>
       <c r="B423">
-        <v>7236.73</v>
+        <v>7246.28</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424">
-        <v>23103.03</v>
+        <v>23928.02</v>
       </c>
       <c r="B424">
-        <v>7242.19</v>
+        <v>7243.87</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425">
-        <v>23108.560000000001</v>
+        <v>23905.19</v>
       </c>
       <c r="B425">
-        <v>7244.9</v>
+        <v>7243.9</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426">
-        <v>23100.7</v>
+        <v>23919.46</v>
       </c>
       <c r="B426">
-        <v>7240.39</v>
+        <v>7240.58</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427">
-        <v>23098.26</v>
+        <v>23925.05</v>
       </c>
       <c r="B427">
-        <v>7242.36</v>
+        <v>7244.54</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428">
-        <v>23104.35</v>
+        <v>23952.639999999999</v>
       </c>
       <c r="B428">
-        <v>7242.39</v>
+        <v>7242.23</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429">
-        <v>23044.84</v>
+        <v>23966.27</v>
       </c>
       <c r="B429">
-        <v>7235.27</v>
+        <v>7245.52</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>23017.02</v>
+        <v>23940.400000000001</v>
       </c>
       <c r="B430">
-        <v>7238.34</v>
+        <v>7261.51</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>23031.14</v>
+        <v>23906.86</v>
       </c>
       <c r="B431">
-        <v>7234.84</v>
+        <v>7257.58</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432">
-        <v>23019.01</v>
+        <v>23905.89</v>
       </c>
       <c r="B432">
-        <v>7230.81</v>
+        <v>7261.76</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433">
-        <v>22985.02</v>
+        <v>23878.84</v>
       </c>
       <c r="B433">
-        <v>7232.37</v>
+        <v>7262.74</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434">
-        <v>22973.21</v>
+        <v>23895.98</v>
       </c>
       <c r="B434">
-        <v>7227.67</v>
+        <v>7257.18</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435">
-        <v>22976.97</v>
+        <v>23932.06</v>
       </c>
       <c r="B435">
-        <v>7233.88</v>
+        <v>7255.83</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436">
-        <v>22985.18</v>
+        <v>23905.63</v>
       </c>
       <c r="B436">
-        <v>7246.45</v>
+        <v>7259.72</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437">
-        <v>22956.46</v>
+        <v>23907.26</v>
       </c>
       <c r="B437">
-        <v>7247.61</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438">
-        <v>22942.17</v>
+        <v>23904.67</v>
       </c>
       <c r="B438">
-        <v>7203.41</v>
+        <v>7252.54</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439">
-        <v>22972.46</v>
+        <v>23907.53</v>
       </c>
       <c r="B439">
-        <v>7212.03</v>
+        <v>7257.8</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440">
-        <v>22984.89</v>
+        <v>23887.82</v>
       </c>
       <c r="B440">
-        <v>7212.95</v>
+        <v>7256.56</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441">
-        <v>22971.53</v>
+        <v>23859.93</v>
       </c>
       <c r="B441">
-        <v>7211.93</v>
+        <v>7253.54</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>22966.84</v>
+        <v>23814.59</v>
       </c>
       <c r="B442">
-        <v>7210.17</v>
+        <v>7254.45</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443">
-        <v>23003.86</v>
+        <v>23826.07</v>
       </c>
       <c r="B443">
-        <v>7210.19</v>
+        <v>7253.35</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444">
-        <v>22987.69</v>
+        <v>23768.98</v>
       </c>
       <c r="B444">
-        <v>7205.84</v>
+        <v>7256.94</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445">
-        <v>22998.23</v>
+        <v>23754.51</v>
       </c>
       <c r="B445">
-        <v>7211.13</v>
+        <v>7256.03</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446">
-        <v>23007.17</v>
+        <v>23773.09</v>
       </c>
       <c r="B446">
-        <v>7209.52</v>
+        <v>7254.79</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447">
-        <v>23005.34</v>
+        <v>23750.19</v>
       </c>
       <c r="B447">
-        <v>7209.82</v>
+        <v>7256.99</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>23026.639999999999</v>
+        <v>23763.95</v>
       </c>
       <c r="B448">
-        <v>7222.46</v>
+        <v>7253.35</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>23017.68</v>
+        <v>23773.360000000001</v>
       </c>
       <c r="B449">
-        <v>7218.86</v>
+        <v>7262.24</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>23049.96</v>
+        <v>23740.73</v>
       </c>
       <c r="B450">
-        <v>7208.53</v>
+        <v>7260.94</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>22966.53</v>
+        <v>23849.22</v>
       </c>
       <c r="B451">
-        <v>7220.11</v>
+        <v>7257.73</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>22919.3</v>
+        <v>23751.83</v>
       </c>
       <c r="B452">
-        <v>7217.7</v>
+        <v>7261.18</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>22905.68</v>
+        <v>23759.16</v>
       </c>
       <c r="B453">
-        <v>7214.23</v>
+        <v>7259.96</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454">
-        <v>22874.67</v>
+        <v>23777.94</v>
       </c>
       <c r="B454">
-        <v>7211.92</v>
+        <v>7262.36</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>22908.75</v>
+        <v>23805.39</v>
       </c>
       <c r="B455">
-        <v>7211.2</v>
+        <v>7259.44</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>22894.11</v>
+        <v>23806.14</v>
       </c>
       <c r="B456">
-        <v>7208.23</v>
+        <v>7268.05</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>22895.11</v>
+        <v>23770.37</v>
       </c>
       <c r="B457">
-        <v>7200.36</v>
+        <v>7273.76</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>22902.19</v>
+        <v>23773.93</v>
       </c>
       <c r="B458">
-        <v>7199.12</v>
+        <v>7273.93</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>22901.85</v>
+        <v>23783.07</v>
       </c>
       <c r="B459">
-        <v>7203.62</v>
+        <v>7280.32</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460">
-        <v>22910.39</v>
+        <v>23780.32</v>
       </c>
       <c r="B460">
-        <v>7208.44</v>
+        <v>7263.44</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>22911.27</v>
+        <v>23808.89</v>
       </c>
       <c r="B461">
-        <v>7169.57</v>
+        <v>7335.65</v>
       </c>
     </row>
     <row r="462" spans="1:2">

--- a/DataNew.xlsx
+++ b/DataNew.xlsx
@@ -352,1857 +352,1857 @@
   <dimension ref="A1:B5934"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B461"/>
+      <selection sqref="A1:B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>22882.27</v>
+        <v>23336.799999999999</v>
       </c>
       <c r="B1">
-        <v>7282.59</v>
+        <v>7218.49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>22848.07</v>
+        <v>23315.48</v>
       </c>
       <c r="B2">
-        <v>7285.51</v>
+        <v>7215.86</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>22808.959999999999</v>
+        <v>23314.03</v>
       </c>
       <c r="B3">
-        <v>7284.81</v>
+        <v>7220.52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>22795.69</v>
+        <v>23334.97</v>
       </c>
       <c r="B4">
-        <v>7286.19</v>
+        <v>7216.97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>22792.59</v>
+        <v>23340.26</v>
       </c>
       <c r="B5">
-        <v>7285.6</v>
+        <v>7217.37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>22752.74</v>
+        <v>23351.27</v>
       </c>
       <c r="B6">
-        <v>7281.79</v>
+        <v>7214.3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>22794.14</v>
+        <v>23342.76</v>
       </c>
       <c r="B7">
-        <v>7279.02</v>
+        <v>7218.63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>22782.17</v>
+        <v>23350.9</v>
       </c>
       <c r="B8">
-        <v>7289.72</v>
+        <v>7219.66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>22801.31</v>
+        <v>23329.8</v>
       </c>
       <c r="B9">
-        <v>7291.34</v>
+        <v>7219.08</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>22793.8</v>
+        <v>23332.44</v>
       </c>
       <c r="B10">
-        <v>7291.2</v>
+        <v>7220.84</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>22843.21</v>
+        <v>23325.759999999998</v>
       </c>
       <c r="B11">
-        <v>7293.72</v>
+        <v>7222.54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>22836.02</v>
+        <v>23319.74</v>
       </c>
       <c r="B12">
-        <v>7295.19</v>
+        <v>7223.59</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>22829.02</v>
+        <v>23331.57</v>
       </c>
       <c r="B13">
-        <v>7296.69</v>
+        <v>7215.28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>22879.57</v>
+        <v>23284.76</v>
       </c>
       <c r="B14">
-        <v>7297.65</v>
+        <v>7219.81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>22906.19</v>
+        <v>23222.92</v>
       </c>
       <c r="B15">
-        <v>7293.87</v>
+        <v>7224.43</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>22933.439999999999</v>
+        <v>23191.52</v>
       </c>
       <c r="B16">
-        <v>7292.15</v>
+        <v>7220.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>22902.68</v>
+        <v>23196.48</v>
       </c>
       <c r="B17">
-        <v>7280.97</v>
+        <v>7223.11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>22902.14</v>
+        <v>23220.240000000002</v>
       </c>
       <c r="B18">
-        <v>7279.72</v>
+        <v>7217.75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>22925.63</v>
+        <v>23214.53</v>
       </c>
       <c r="B19">
-        <v>7295.08</v>
+        <v>7216.09</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>22944.240000000002</v>
+        <v>23234.44</v>
       </c>
       <c r="B20">
-        <v>7294.51</v>
+        <v>7201.57</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>22951.25</v>
+        <v>23281.29</v>
       </c>
       <c r="B21">
-        <v>7287.11</v>
+        <v>7199.94</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>22933.56</v>
+        <v>23298.95</v>
       </c>
       <c r="B22">
-        <v>7297.61</v>
+        <v>7178.12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>22928.07</v>
+        <v>23306.25</v>
       </c>
       <c r="B23">
-        <v>7292.37</v>
+        <v>7186.22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>22696.52</v>
+        <v>23314.54</v>
       </c>
       <c r="B24">
-        <v>7336.31</v>
+        <v>7179.5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>22694.1</v>
+        <v>23357.91</v>
       </c>
       <c r="B25">
-        <v>7332.81</v>
+        <v>7181.87</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>22721.09</v>
+        <v>23378.35</v>
       </c>
       <c r="B26">
-        <v>7330.17</v>
+        <v>7179.98</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>22713.99</v>
+        <v>23420.93</v>
       </c>
       <c r="B27">
-        <v>7333.44</v>
+        <v>7180.95</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>22712.89</v>
+        <v>23442.2</v>
       </c>
       <c r="B28">
-        <v>7343.1</v>
+        <v>7178.07</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>22679.91</v>
+        <v>23428.9</v>
       </c>
       <c r="B29">
-        <v>7341.6</v>
+        <v>7182.3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>22712.82</v>
+        <v>23470.7</v>
       </c>
       <c r="B30">
-        <v>7338.41</v>
+        <v>7183.99</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>22742.78</v>
+        <v>23490.12</v>
       </c>
       <c r="B31">
-        <v>7338.26</v>
+        <v>7179.63</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>22731.17</v>
+        <v>23497.89</v>
       </c>
       <c r="B32">
-        <v>7337.33</v>
+        <v>7175.63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>22726</v>
+        <v>23496.74</v>
       </c>
       <c r="B33">
-        <v>7339.22</v>
+        <v>7174.14</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>22720.03</v>
+        <v>23496.81</v>
       </c>
       <c r="B34">
-        <v>7340.67</v>
+        <v>7167.56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>22724.17</v>
+        <v>23503.55</v>
       </c>
       <c r="B35">
-        <v>7334.63</v>
+        <v>7167.81</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>22718.15</v>
+        <v>23485.13</v>
       </c>
       <c r="B36">
-        <v>7332.9</v>
+        <v>7164.52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>22819.87</v>
+        <v>23533.52</v>
       </c>
       <c r="B37">
-        <v>7331.07</v>
+        <v>7161.95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>22747.85</v>
+        <v>23571</v>
       </c>
       <c r="B38">
-        <v>7327.52</v>
+        <v>7160.7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>22720.32</v>
+        <v>23577.9</v>
       </c>
       <c r="B39">
-        <v>7322.79</v>
+        <v>7154.27</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>22740.68</v>
+        <v>23615.040000000001</v>
       </c>
       <c r="B40">
-        <v>7323.33</v>
+        <v>7166.01</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>22797.4</v>
+        <v>23641.61</v>
       </c>
       <c r="B41">
-        <v>7326</v>
+        <v>7173.16</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>22815.3</v>
+        <v>23602.33</v>
       </c>
       <c r="B42">
-        <v>7325.51</v>
+        <v>7182.31</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>22819.85</v>
+        <v>23528.21</v>
       </c>
       <c r="B43">
-        <v>7324.33</v>
+        <v>7183.32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>22806.83</v>
+        <v>23565.54</v>
       </c>
       <c r="B44">
-        <v>7325.94</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>22814.9</v>
+        <v>23593.68</v>
       </c>
       <c r="B45">
-        <v>7325.89</v>
+        <v>7191.96</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>22803.919999999998</v>
+        <v>23576.63</v>
       </c>
       <c r="B46">
-        <v>7327.13</v>
+        <v>7188.82</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>22801.279999999999</v>
+        <v>23569.66</v>
       </c>
       <c r="B47">
-        <v>7298.76</v>
+        <v>7198.64</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>22805.29</v>
+        <v>23559.5</v>
       </c>
       <c r="B48">
-        <v>7298.59</v>
+        <v>7211.58</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>22815.14</v>
+        <v>23550.15</v>
       </c>
       <c r="B49">
-        <v>7297.38</v>
+        <v>7212.95</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>22838</v>
+        <v>23509.01</v>
       </c>
       <c r="B50">
-        <v>7297.96</v>
+        <v>7206.65</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>22831.22</v>
+        <v>23515.89</v>
       </c>
       <c r="B51">
-        <v>7283.91</v>
+        <v>7207.62</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>22826.75</v>
+        <v>23525.93</v>
       </c>
       <c r="B52">
-        <v>7285.75</v>
+        <v>7206.39</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>22825.71</v>
+        <v>23545.35</v>
       </c>
       <c r="B53">
-        <v>7280.15</v>
+        <v>7204.81</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>22841.88</v>
+        <v>23540.19</v>
       </c>
       <c r="B54">
-        <v>7271.59</v>
+        <v>7211.92</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>22844.32</v>
+        <v>23556.400000000001</v>
       </c>
       <c r="B55">
-        <v>7269.37</v>
+        <v>7202.42</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>22847.06</v>
+        <v>23537.98</v>
       </c>
       <c r="B56">
-        <v>7264.57</v>
+        <v>7203.84</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>22857.65</v>
+        <v>23517.37</v>
       </c>
       <c r="B57">
-        <v>7261.79</v>
+        <v>7195.75</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>22854.81</v>
+        <v>23511.23</v>
       </c>
       <c r="B58">
-        <v>7264.37</v>
+        <v>7199.37</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>22840.97</v>
+        <v>23525.14</v>
       </c>
       <c r="B59">
-        <v>7259.91</v>
+        <v>7199.78</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>22889.33</v>
+        <v>23645.9</v>
       </c>
       <c r="B60">
-        <v>7257.13</v>
+        <v>7202.62</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>23000.16</v>
+        <v>23653.62</v>
       </c>
       <c r="B61">
-        <v>7247.78</v>
+        <v>7204.68</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>23068.31</v>
+        <v>23661.84</v>
       </c>
       <c r="B62">
-        <v>7244.11</v>
+        <v>7208.03</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>23075.32</v>
+        <v>23659.7</v>
       </c>
       <c r="B63">
-        <v>7245.31</v>
+        <v>7210.21</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>23139.21</v>
+        <v>23656.81</v>
       </c>
       <c r="B64">
-        <v>7251.04</v>
+        <v>7227.57</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>23104.54</v>
+        <v>23655.63</v>
       </c>
       <c r="B65">
-        <v>7243.72</v>
+        <v>7220.13</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>23095.79</v>
+        <v>23653.09</v>
       </c>
       <c r="B66">
-        <v>7238.17</v>
+        <v>7225.07</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>23086.27</v>
+        <v>23653.37</v>
       </c>
       <c r="B67">
-        <v>7235.86</v>
+        <v>7223.1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>23097.72</v>
+        <v>23649.4</v>
       </c>
       <c r="B68">
-        <v>7229.14</v>
+        <v>7235.15</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>23089.34</v>
+        <v>23669.23</v>
       </c>
       <c r="B69">
-        <v>7220.38</v>
+        <v>7229.5</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>23120.52</v>
+        <v>23715.98</v>
       </c>
       <c r="B70">
-        <v>7229.78</v>
+        <v>7288.58</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>23122.84</v>
+        <v>23715.47</v>
       </c>
       <c r="B71">
-        <v>7228.94</v>
+        <v>7284.84</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>23114.62</v>
+        <v>23674.66</v>
       </c>
       <c r="B72">
-        <v>7226.47</v>
+        <v>7290.56</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>23115.45</v>
+        <v>23684.94</v>
       </c>
       <c r="B73">
-        <v>7227.68</v>
+        <v>7291.76</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>23099.67</v>
+        <v>23693.439999999999</v>
       </c>
       <c r="B74">
-        <v>7223.96</v>
+        <v>7285.33</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>23095.42</v>
+        <v>23693.09</v>
       </c>
       <c r="B75">
-        <v>7223.66</v>
+        <v>7287.09</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>23114.95</v>
+        <v>23700.58</v>
       </c>
       <c r="B76">
-        <v>7231.19</v>
+        <v>7281.65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>23095.21</v>
+        <v>23686.84</v>
       </c>
       <c r="B77">
-        <v>7235.05</v>
+        <v>7277.94</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>23104.080000000002</v>
+        <v>23693.86</v>
       </c>
       <c r="B78">
-        <v>7236.73</v>
+        <v>7279.51</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>23103.03</v>
+        <v>23711.53</v>
       </c>
       <c r="B79">
-        <v>7242.19</v>
+        <v>7283.37</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>23108.560000000001</v>
+        <v>23711.86</v>
       </c>
       <c r="B80">
-        <v>7244.9</v>
+        <v>7279.81</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>23100.7</v>
+        <v>23705.87</v>
       </c>
       <c r="B81">
-        <v>7240.39</v>
+        <v>7280.01</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>23098.26</v>
+        <v>23703.01</v>
       </c>
       <c r="B82">
-        <v>7242.36</v>
+        <v>7281.91</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>23104.35</v>
+        <v>23771.95</v>
       </c>
       <c r="B83">
-        <v>7242.39</v>
+        <v>7280.41</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>23044.84</v>
+        <v>23909.98</v>
       </c>
       <c r="B84">
-        <v>7235.27</v>
+        <v>7280.64</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>23017.02</v>
+        <v>23951.68</v>
       </c>
       <c r="B85">
-        <v>7238.34</v>
+        <v>7285.02</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>23031.14</v>
+        <v>23966.2</v>
       </c>
       <c r="B86">
-        <v>7234.84</v>
+        <v>7279.75</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>23019.01</v>
+        <v>23952.01</v>
       </c>
       <c r="B87">
-        <v>7230.81</v>
+        <v>7274.82</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>22985.02</v>
+        <v>23922.16</v>
       </c>
       <c r="B88">
-        <v>7232.37</v>
+        <v>7263.61</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>22973.21</v>
+        <v>23926.18</v>
       </c>
       <c r="B89">
-        <v>7227.67</v>
+        <v>7266.16</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>22976.97</v>
+        <v>23963.48</v>
       </c>
       <c r="B90">
-        <v>7233.88</v>
+        <v>7266.61</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>22985.18</v>
+        <v>24000.12</v>
       </c>
       <c r="B91">
-        <v>7246.45</v>
+        <v>7274.72</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>22956.46</v>
+        <v>23989.65</v>
       </c>
       <c r="B92">
-        <v>7247.61</v>
+        <v>7268.56</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>22942.17</v>
+        <v>24050.05</v>
       </c>
       <c r="B93">
-        <v>7203.41</v>
+        <v>7296.74</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>22972.46</v>
+        <v>24051.33</v>
       </c>
       <c r="B94">
-        <v>7212.03</v>
+        <v>7296.78</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>22984.89</v>
+        <v>24022.41</v>
       </c>
       <c r="B95">
-        <v>7212.95</v>
+        <v>7297.33</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>22971.53</v>
+        <v>24041.31</v>
       </c>
       <c r="B96">
-        <v>7211.93</v>
+        <v>7302.36</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>22966.84</v>
+        <v>24049.18</v>
       </c>
       <c r="B97">
-        <v>7210.17</v>
+        <v>7308.97</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>23003.86</v>
+        <v>24037.65</v>
       </c>
       <c r="B98">
-        <v>7210.19</v>
+        <v>7308.51</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>22987.69</v>
+        <v>23996.59</v>
       </c>
       <c r="B99">
-        <v>7205.84</v>
+        <v>7303.26</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>22998.23</v>
+        <v>23965.39</v>
       </c>
       <c r="B100">
-        <v>7211.13</v>
+        <v>7304.08</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>23007.17</v>
+        <v>23952.2</v>
       </c>
       <c r="B101">
-        <v>7209.52</v>
+        <v>7302.39</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>23005.34</v>
+        <v>24002.41</v>
       </c>
       <c r="B102">
-        <v>7209.82</v>
+        <v>7302.66</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>23026.639999999999</v>
+        <v>24022.38</v>
       </c>
       <c r="B103">
-        <v>7222.46</v>
+        <v>7304.58</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>23017.68</v>
+        <v>23996.67</v>
       </c>
       <c r="B104">
-        <v>7218.86</v>
+        <v>7294.57</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>23049.96</v>
+        <v>23994.87</v>
       </c>
       <c r="B105">
-        <v>7208.53</v>
+        <v>7291.59</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>22966.53</v>
+        <v>24139.31</v>
       </c>
       <c r="B106">
-        <v>7220.11</v>
+        <v>7297.47</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>22919.3</v>
+        <v>24052.06</v>
       </c>
       <c r="B107">
-        <v>7217.7</v>
+        <v>7296.41</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>22905.68</v>
+        <v>23996.95</v>
       </c>
       <c r="B108">
-        <v>7214.23</v>
+        <v>7295.64</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>22874.67</v>
+        <v>24026.080000000002</v>
       </c>
       <c r="B109">
-        <v>7211.92</v>
+        <v>7294.03</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>22908.75</v>
+        <v>24058.03</v>
       </c>
       <c r="B110">
-        <v>7211.2</v>
+        <v>7296.93</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>22894.11</v>
+        <v>24051.279999999999</v>
       </c>
       <c r="B111">
-        <v>7208.23</v>
+        <v>7297.28</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>22895.11</v>
+        <v>24097.95</v>
       </c>
       <c r="B112">
-        <v>7200.36</v>
+        <v>7305.92</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>22902.19</v>
+        <v>24070.84</v>
       </c>
       <c r="B113">
-        <v>7199.12</v>
+        <v>7303.66</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>22901.85</v>
+        <v>24070.94</v>
       </c>
       <c r="B114">
-        <v>7203.62</v>
+        <v>7312.15</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>22910.39</v>
+        <v>24063.82</v>
       </c>
       <c r="B115">
-        <v>7208.44</v>
+        <v>7302.41</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>22911.27</v>
+        <v>24074.07</v>
       </c>
       <c r="B116">
-        <v>7169.57</v>
+        <v>7264.58</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>22901.77</v>
+        <v>24093.81</v>
       </c>
       <c r="B117">
-        <v>7168.81</v>
+        <v>7267.4</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>22883.01</v>
+        <v>24103.61</v>
       </c>
       <c r="B118">
-        <v>7168.5</v>
+        <v>7266.72</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>22887.86</v>
+        <v>24121.06</v>
       </c>
       <c r="B119">
-        <v>7164.3</v>
+        <v>7274.76</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>22882.38</v>
+        <v>24105.86</v>
       </c>
       <c r="B120">
-        <v>7170.97</v>
+        <v>7279.33</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>22866.97</v>
+        <v>24112.79</v>
       </c>
       <c r="B121">
-        <v>7169.21</v>
+        <v>7277.81</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>22867.360000000001</v>
+        <v>24105.54</v>
       </c>
       <c r="B122">
-        <v>7160.44</v>
+        <v>7276.49</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>22884.86</v>
+        <v>24112.05</v>
       </c>
       <c r="B123">
-        <v>7162.89</v>
+        <v>7276.44</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>22887.040000000001</v>
+        <v>24105.71</v>
       </c>
       <c r="B124">
-        <v>7161.24</v>
+        <v>7277.21</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>22878.22</v>
+        <v>24095.05</v>
       </c>
       <c r="B125">
-        <v>7155.06</v>
+        <v>7276.74</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>22891.17</v>
+        <v>24090.97</v>
       </c>
       <c r="B126">
-        <v>7151.3</v>
+        <v>7282.05</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>22906.07</v>
+        <v>24088.11</v>
       </c>
       <c r="B127">
-        <v>7154.5</v>
+        <v>7282.94</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>22898.52</v>
+        <v>24107.7</v>
       </c>
       <c r="B128">
-        <v>7162.3</v>
+        <v>7282.95</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>22965.25</v>
+        <v>24077.87</v>
       </c>
       <c r="B129">
-        <v>7160.65</v>
+        <v>7283.33</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>22958.13</v>
+        <v>24007.759999999998</v>
       </c>
       <c r="B130">
-        <v>7165.4</v>
+        <v>7286.08</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>22964.17</v>
+        <v>24097.09</v>
       </c>
       <c r="B131">
-        <v>7161.28</v>
+        <v>7282.96</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>22963.13</v>
+        <v>24061.91</v>
       </c>
       <c r="B132">
-        <v>7154.35</v>
+        <v>7280.56</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>22954.55</v>
+        <v>24077.89</v>
       </c>
       <c r="B133">
-        <v>7147.79</v>
+        <v>7282.75</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>22974.23</v>
+        <v>24055.22</v>
       </c>
       <c r="B134">
-        <v>7139.96</v>
+        <v>7289.57</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>22958.83</v>
+        <v>24031.33</v>
       </c>
       <c r="B135">
-        <v>7136.23</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>22966.06</v>
+        <v>23998.38</v>
       </c>
       <c r="B136">
-        <v>7137.11</v>
+        <v>7274.41</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>22969.68</v>
+        <v>23995.81</v>
       </c>
       <c r="B137">
-        <v>7149.66</v>
+        <v>7273.95</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>22967.279999999999</v>
+        <v>24007.61</v>
       </c>
       <c r="B138">
-        <v>7151.18</v>
+        <v>7277.92</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>22977.439999999999</v>
+        <v>24099.31</v>
       </c>
       <c r="B139">
-        <v>7171.15</v>
+        <v>7291.33</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>22976.35</v>
+        <v>24026.35</v>
       </c>
       <c r="B140">
-        <v>7168.05</v>
+        <v>7294.15</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>22980.42</v>
+        <v>24066.75</v>
       </c>
       <c r="B141">
-        <v>7163.99</v>
+        <v>7296.77</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>22981.14</v>
+        <v>24085.52</v>
       </c>
       <c r="B142">
-        <v>7158.41</v>
+        <v>7293.77</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>22941.34</v>
+        <v>24081.57</v>
       </c>
       <c r="B143">
-        <v>7164.39</v>
+        <v>7294.65</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>22954.44</v>
+        <v>24038.48</v>
       </c>
       <c r="B144">
-        <v>7166.28</v>
+        <v>7290.32</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>22958.35</v>
+        <v>24014.16</v>
       </c>
       <c r="B145">
-        <v>7165.34</v>
+        <v>7289.11</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>22962.2</v>
+        <v>23987.13</v>
       </c>
       <c r="B146">
-        <v>7170.47</v>
+        <v>7286.57</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>22952.36</v>
+        <v>23990.86</v>
       </c>
       <c r="B147">
-        <v>7170.5</v>
+        <v>7282.77</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>22944.37</v>
+        <v>23968.97</v>
       </c>
       <c r="B148">
-        <v>7161.59</v>
+        <v>7281.39</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>22933.82</v>
+        <v>23919.58</v>
       </c>
       <c r="B149">
-        <v>7158.74</v>
+        <v>7280.94</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>22935.74</v>
+        <v>23937.73</v>
       </c>
       <c r="B150">
-        <v>7166.46</v>
+        <v>7279.16</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>22949.86</v>
+        <v>23963.63</v>
       </c>
       <c r="B151">
-        <v>7164.06</v>
+        <v>7280.5</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>23066.400000000001</v>
+        <v>24059.09</v>
       </c>
       <c r="B152">
-        <v>7161.12</v>
+        <v>7282.53</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>23028.799999999999</v>
+        <v>24127.26</v>
       </c>
       <c r="B153">
-        <v>7160.84</v>
+        <v>7292.53</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>23017.17</v>
+        <v>24132.17</v>
       </c>
       <c r="B154">
-        <v>7163.75</v>
+        <v>7284.74</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>23031.27</v>
+        <v>24160.5</v>
       </c>
       <c r="B155">
-        <v>7164.73</v>
+        <v>7291.69</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>23024.99</v>
+        <v>24158.04</v>
       </c>
       <c r="B156">
-        <v>7162.64</v>
+        <v>7293.73</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>23007.58</v>
+        <v>24160.31</v>
       </c>
       <c r="B157">
-        <v>7160.75</v>
+        <v>7297.22</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>22977.56</v>
+        <v>24153.8</v>
       </c>
       <c r="B158">
-        <v>7148.66</v>
+        <v>7283.84</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>22990.5</v>
+        <v>24148.19</v>
       </c>
       <c r="B159">
-        <v>7147.02</v>
+        <v>7285.44</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>23000.76</v>
+        <v>24158.22</v>
       </c>
       <c r="B160">
-        <v>7150.37</v>
+        <v>7282.26</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>22994.51</v>
+        <v>24148.94</v>
       </c>
       <c r="B161">
-        <v>7150.34</v>
+        <v>7274.83</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>23206.7</v>
+        <v>24180.75</v>
       </c>
       <c r="B162">
-        <v>7156.42</v>
+        <v>7285.58</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>23190.46</v>
+        <v>24169.5</v>
       </c>
       <c r="B163">
-        <v>7151.67</v>
+        <v>7279.28</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>23173.65</v>
+        <v>24135.54</v>
       </c>
       <c r="B164">
-        <v>7144.76</v>
+        <v>7279.08</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>23198.84</v>
+        <v>24152.65</v>
       </c>
       <c r="B165">
-        <v>7134.39</v>
+        <v>7276.26</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>23191.01</v>
+        <v>24160.959999999999</v>
       </c>
       <c r="B166">
-        <v>7140.2</v>
+        <v>7285.59</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>23205.11</v>
+        <v>24166.92</v>
       </c>
       <c r="B167">
-        <v>7139.67</v>
+        <v>7285.55</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>23279.86</v>
+        <v>24143.87</v>
       </c>
       <c r="B168">
-        <v>7142.58</v>
+        <v>7282.11</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>23262.05</v>
+        <v>24154.23</v>
       </c>
       <c r="B169">
-        <v>7143.89</v>
+        <v>7282.25</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>23264.11</v>
+        <v>24179.26</v>
       </c>
       <c r="B170">
-        <v>7143.63</v>
+        <v>7283.61</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>23277.43</v>
+        <v>24185.99</v>
       </c>
       <c r="B171">
-        <v>7145.3</v>
+        <v>7283.89</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>23264.46</v>
+        <v>24172.86</v>
       </c>
       <c r="B172">
-        <v>7143.7</v>
+        <v>7285.29</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>23274.91</v>
+        <v>24178.11</v>
       </c>
       <c r="B173">
-        <v>7142.36</v>
+        <v>7282.19</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>23318.39</v>
+        <v>24201.96</v>
       </c>
       <c r="B174">
-        <v>7141.72</v>
+        <v>7278.85</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>23309.46</v>
+        <v>24122.18</v>
       </c>
       <c r="B175">
-        <v>7142.1</v>
+        <v>7279.19</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>23361.26</v>
+        <v>24195.78</v>
       </c>
       <c r="B176">
-        <v>7139.17</v>
+        <v>7277.38</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>23274.44</v>
+        <v>24125.78</v>
       </c>
       <c r="B177">
-        <v>7124.69</v>
+        <v>7279.5</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>23240.55</v>
+        <v>24085.65</v>
       </c>
       <c r="B178">
-        <v>7112.93</v>
+        <v>7286.1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>23245.82</v>
+        <v>24088.77</v>
       </c>
       <c r="B179">
-        <v>7113.81</v>
+        <v>7294.49</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>23219.69</v>
+        <v>24096.17</v>
       </c>
       <c r="B180">
-        <v>7106.09</v>
+        <v>7309.41</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>23195.66</v>
+        <v>24124.9</v>
       </c>
       <c r="B181">
-        <v>7102.11</v>
+        <v>7302.97</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>23193.51</v>
+        <v>24097.7</v>
       </c>
       <c r="B182">
-        <v>7109.41</v>
+        <v>7299.75</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>23199.1</v>
+        <v>24085.29</v>
       </c>
       <c r="B183">
-        <v>7102.73</v>
+        <v>7303.4</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>23180.54</v>
+        <v>24097.78</v>
       </c>
       <c r="B184">
-        <v>7107.65</v>
+        <v>7302.25</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>23155.05</v>
+        <v>23946.61</v>
       </c>
       <c r="B185">
-        <v>7129.61</v>
+        <v>7254.19</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>23146.63</v>
+        <v>23912.32</v>
       </c>
       <c r="B186">
-        <v>7131.71</v>
+        <v>7254.74</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>23137.13</v>
+        <v>23922.04</v>
       </c>
       <c r="B187">
-        <v>7125.57</v>
+        <v>7254.16</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>23163.24</v>
+        <v>23898.13</v>
       </c>
       <c r="B188">
-        <v>7118.57</v>
+        <v>7251.59</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>23164.91</v>
+        <v>23880.43</v>
       </c>
       <c r="B189">
-        <v>7131.32</v>
+        <v>7250.65</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>23169.1</v>
+        <v>23875.03</v>
       </c>
       <c r="B190">
-        <v>7145.15</v>
+        <v>7253.28</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>23155.38</v>
+        <v>23878.95</v>
       </c>
       <c r="B191">
-        <v>7156.63</v>
+        <v>7252.17</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>23174.28</v>
+        <v>23876.86</v>
       </c>
       <c r="B192">
-        <v>7150.26</v>
+        <v>7251.54</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>23159.83</v>
+        <v>23907.27</v>
       </c>
       <c r="B193">
-        <v>7150.97</v>
+        <v>7246.28</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>23164.35</v>
+        <v>23928.02</v>
       </c>
       <c r="B194">
-        <v>7155.75</v>
+        <v>7243.87</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>23163.4</v>
+        <v>23905.19</v>
       </c>
       <c r="B195">
-        <v>7155.45</v>
+        <v>7243.9</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>23173.3</v>
+        <v>23919.46</v>
       </c>
       <c r="B196">
-        <v>7148.52</v>
+        <v>7240.58</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>23184.52</v>
+        <v>23925.05</v>
       </c>
       <c r="B197">
-        <v>7153.84</v>
+        <v>7244.54</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>23216.97</v>
+        <v>23952.639999999999</v>
       </c>
       <c r="B198">
-        <v>7159.25</v>
+        <v>7242.23</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>23164.63</v>
+        <v>23966.27</v>
       </c>
       <c r="B199">
-        <v>7158.81</v>
+        <v>7245.52</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>23128.32</v>
+        <v>23940.400000000001</v>
       </c>
       <c r="B200">
-        <v>7160.83</v>
+        <v>7261.51</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>23065.62</v>
+        <v>23906.86</v>
       </c>
       <c r="B201">
-        <v>7151.45</v>
+        <v>7257.58</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>23032.87</v>
+        <v>23905.89</v>
       </c>
       <c r="B202">
-        <v>7146.86</v>
+        <v>7261.76</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>23041.14</v>
+        <v>23878.84</v>
       </c>
       <c r="B203">
-        <v>7147.94</v>
+        <v>7262.74</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>23018.9</v>
+        <v>23895.98</v>
       </c>
       <c r="B204">
-        <v>7152.88</v>
+        <v>7257.18</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>23016.58</v>
+        <v>23932.06</v>
       </c>
       <c r="B205">
-        <v>7153.01</v>
+        <v>7255.83</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>23040.23</v>
+        <v>23905.63</v>
       </c>
       <c r="B206">
-        <v>7144.16</v>
+        <v>7259.72</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>23078.62</v>
+        <v>23907.26</v>
       </c>
       <c r="B207">
-        <v>7140.75</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>23276.81</v>
+        <v>23904.67</v>
       </c>
       <c r="B208">
-        <v>7208.19</v>
+        <v>7252.54</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209">
-        <v>23234.35</v>
+        <v>23907.53</v>
       </c>
       <c r="B209">
-        <v>7202.92</v>
+        <v>7257.8</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>23249.01</v>
+        <v>23887.82</v>
       </c>
       <c r="B210">
-        <v>7199.96</v>
+        <v>7256.56</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211">
-        <v>23256.76</v>
+        <v>23859.93</v>
       </c>
       <c r="B211">
-        <v>7200.02</v>
+        <v>7253.54</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>23267.02</v>
+        <v>23814.59</v>
       </c>
       <c r="B212">
-        <v>7198.32</v>
+        <v>7254.45</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>23280.74</v>
+        <v>23826.07</v>
       </c>
       <c r="B213">
-        <v>7195.95</v>
+        <v>7253.35</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>23287.53</v>
+        <v>23768.98</v>
       </c>
       <c r="B214">
-        <v>7193.58</v>
+        <v>7256.94</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215">
-        <v>23281.96</v>
+        <v>23754.51</v>
       </c>
       <c r="B215">
-        <v>7185.36</v>
+        <v>7256.03</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>23292.21</v>
+        <v>23773.09</v>
       </c>
       <c r="B216">
-        <v>7187.03</v>
+        <v>7254.79</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>23307.29</v>
+        <v>23750.19</v>
       </c>
       <c r="B217">
-        <v>7182.61</v>
+        <v>7256.99</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>23334.53</v>
+        <v>23763.95</v>
       </c>
       <c r="B218">
-        <v>7171.08</v>
+        <v>7253.35</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219">
-        <v>23340.37</v>
+        <v>23773.360000000001</v>
       </c>
       <c r="B219">
-        <v>7168.01</v>
+        <v>7262.24</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>23348.240000000002</v>
+        <v>23740.73</v>
       </c>
       <c r="B220">
-        <v>7171.22</v>
+        <v>7260.94</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221">
-        <v>23287.89</v>
+        <v>23849.22</v>
       </c>
       <c r="B221">
-        <v>7170.07</v>
+        <v>7257.73</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>23321.17</v>
+        <v>23751.83</v>
       </c>
       <c r="B222">
-        <v>7177.92</v>
+        <v>7261.18</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
-        <v>23334.31</v>
+        <v>23759.16</v>
       </c>
       <c r="B223">
-        <v>7180.86</v>
+        <v>7259.96</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
-        <v>23353.32</v>
+        <v>23777.94</v>
       </c>
       <c r="B224">
-        <v>7179.33</v>
+        <v>7262.36</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>23344.93</v>
+        <v>23805.39</v>
       </c>
       <c r="B225">
-        <v>7181.35</v>
+        <v>7259.44</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>23362.77</v>
+        <v>23806.14</v>
       </c>
       <c r="B226">
-        <v>7173.49</v>
+        <v>7268.05</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>23344.73</v>
+        <v>23770.37</v>
       </c>
       <c r="B227">
-        <v>7170.4</v>
+        <v>7273.76</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>23333.82</v>
+        <v>23773.93</v>
       </c>
       <c r="B228">
-        <v>7177.61</v>
+        <v>7273.93</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>23299.25</v>
+        <v>23783.07</v>
       </c>
       <c r="B229">
-        <v>7175.92</v>
+        <v>7280.32</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>23317.09</v>
+        <v>23780.32</v>
       </c>
       <c r="B230">
-        <v>7172.15</v>
+        <v>7263.44</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>23336.799999999999</v>
+        <v>23808.89</v>
       </c>
       <c r="B231">
-        <v>7218.49</v>
+        <v>7335.65</v>
       </c>
     </row>
     <row r="232" spans="1:2">
